--- a/g_sheets/All Excel.xlsx
+++ b/g_sheets/All Excel.xlsx
@@ -5,33 +5,34 @@
   <sheets>
     <sheet state="visible" name="Theory" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Formulas" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Practice" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Pivot Table 1" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Pivot Table 2" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Pivot Table 3" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Pivot Table 4" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Tableau" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Practice" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Pivot Table 1" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Pivot Table 2" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Pivot Table 3" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Pivot Table 4" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Theory!$A$1:$J$15</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_DEA07DB9_ED48_45D5_8D72_0A5A06B0D40E_.wvu.FilterData">Formulas!$C$165:$E$174</definedName>
-    <definedName hidden="1" localSheetId="2" name="Z_DEA07DB9_ED48_45D5_8D72_0A5A06B0D40E_.wvu.FilterData">Practice!$A$84:$U$103</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_D0F021FD_F408_40AD_9BF2_59AC08250F42_.wvu.FilterData">Formulas!$C$165:$E$174</definedName>
+    <definedName hidden="1" localSheetId="3" name="Z_D0F021FD_F408_40AD_9BF2_59AC08250F42_.wvu.FilterData">Practice!$A$84:$U$103</definedName>
     <definedName name="SlicerCache_Table_1_Col_1">#N/A</definedName>
     <definedName name="SlicerCache_Table_3_Col_8">#N/A</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DEA07DB9-ED48-45D5-8D72-0A5A06B0D40E}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D0F021FD-F408-40AD-9BF2-59AC08250F42}" name="Filter 1"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
-    <pivotCache cacheId="1" r:id="rId12"/>
-    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches>
-        <x14:slicerCache r:id="rId14"/>
         <x14:slicerCache r:id="rId15"/>
+        <x14:slicerCache r:id="rId16"/>
       </x15:slicerCaches>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="551">
   <si>
     <t>id</t>
   </si>
@@ -492,12 +493,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-	1.	Conditional formatting
-	2.	Data Validation
-	3.	Data Analysis &amp; Statistical Functions
-	4.	Pivot Tables
-	5.	Dashboarding
-	6.	Macros
+        1.        Conditional formatting
+        2.        Data Validation
+        3.        Data Analysis &amp; Statistical Functions
+        4.        Pivot Tables
+        5.        Dashboarding
+        6.        Macros
 Paste Special - pastes table without formulas
 Descriptive stats - how col looks like - overtire of col
 1. Mean - AVG() - average of col
@@ -509,12 +510,12 @@
 Ex: Sales across regions
 Cross Tabs or Pivots
 Excel can do
-	1.	Data calc
-	2.	Data storage
-	3.	Data cleaning
-	4.	Data analysis - stats
-	5.	Data Viz
-	6.	Automation - macros
+        1.        Data calc
+        2.        Data storage
+        3.        Data cleaning
+        4.        Data analysis - stats
+        5.        Data Viz
+        6.        Automation - macros
 Macros - needs VBA - Visual Basic applications - script based lang
 When saving macros use Excel Macro-Enabled Workbook as extension. Not default xlxs.
 Data Viz:
@@ -531,10 +532,10 @@
 Pivot, Unpivot in SQL to change table format from wide to long and vice-versa.
 Record a relative reference macro in google sheets
 Steps:
-	1.	Click on Extension -&gt; under macro select record macro
-	2.	Perform the steps that you want to record
-	3.	Stop the recording
-	4.	Add a name for the macro and save.
+        1.        Click on Extension -&gt; under macro select record macro
+        2.        Perform the steps that you want to record
+        3.        Stop the recording
+        4.        Add a name for the macro and save.
 </t>
   </si>
   <si>
@@ -1039,7 +1040,7 @@
     <t>Macros</t>
   </si>
   <si>
-    <t>Extensions Menu -&gt; Macros -&gt; Record Macro (Relative position if tables arranged as below) -&gt; Save as "Extract Year Macro" |||||||| Select cell -&gt; Extensions Menu -&gt; Mactos -&gt; Select "Extract Year Macro" |||||| The table should be in same format</t>
+    <t>Extensions Menu -&gt; Macros -&gt; Record Macro (Relative position if tables arranged as below) -&gt; Save as "Extract Year Macro" |||||||| Select cell -&gt; Extensions Menu -&gt; Macros -&gt; Select "Extract Year Macro" |||||| The table should be in same format</t>
   </si>
   <si>
     <t>Year</t>
@@ -1133,6 +1134,463 @@
   </si>
   <si>
     <t>Green Tea</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Data calc</t>
+  </si>
+  <si>
+    <t>Data storage</t>
+  </si>
+  <si>
+    <t>Data cleaning</t>
+  </si>
+  <si>
+    <t>Data analysis - stats</t>
+  </si>
+  <si>
+    <t>Data Viz</t>
+  </si>
+  <si>
+    <t>Automation - macros</t>
+  </si>
+  <si>
+    <t>Tableau Vs Excel - why Tableaue over Excel</t>
+  </si>
+  <si>
+    <t>What data sources can you connect to? How do you connect to them?</t>
+  </si>
+  <si>
+    <t>What are the join types in Tableau?</t>
+  </si>
+  <si>
+    <t>How to join data in Tableau?</t>
+  </si>
+  <si>
+    <t>What is the difference between joining and blending?</t>
+  </si>
+  <si>
+    <t>What is the difference between a live and an extract?</t>
+  </si>
+  <si>
+    <t>What is a dimension vs. a measure?</t>
+  </si>
+  <si>
+    <t>What is a discrete vs. a continuous value?</t>
+  </si>
+  <si>
+    <t>What is the Order of Operations?</t>
+  </si>
+  <si>
+    <t>What are parameters, sets, and groups?</t>
+  </si>
+  <si>
+    <t>What is a calculated field?</t>
+  </si>
+  <si>
+    <t>What is a dual axis? - useful if u want to check "sales, quantity Vs date" in same chart</t>
+  </si>
+  <si>
+    <t>What are LOD expressions?</t>
+  </si>
+  <si>
+    <t>What are actions?</t>
+  </si>
+  <si>
+    <t>How do you restrict access to the data?</t>
+  </si>
+  <si>
+    <t>How do you increase the performance of a slow workbook?</t>
+  </si>
+  <si>
+    <t>Build a chart showing the top five and bottom five sales by customer</t>
+  </si>
+  <si>
+    <t>Find the state with the lowest profit ratio</t>
+  </si>
+  <si>
+    <t>What is Tableau?</t>
+  </si>
+  <si>
+    <t>What is data visualization in Tableau?</t>
+  </si>
+  <si>
+    <t>What are the advantages of Tableau?</t>
+  </si>
+  <si>
+    <t>What is the difference between various BI tools and Tableau?</t>
+  </si>
+  <si>
+    <t>What are different Tableau products?</t>
+  </si>
+  <si>
+    <t>What is a parameter in Tableau?</t>
+  </si>
+  <si>
+    <t>Tell me something about measures and dimensions?</t>
+  </si>
+  <si>
+    <t>What are continuous and discrete field types?</t>
+  </si>
+  <si>
+    <t>What is aggregation and disaggregation of data?</t>
+  </si>
+  <si>
+    <t>What are the different types of joins in Tableau?</t>
+  </si>
+  <si>
+    <t>Tell me the different connections to make with a dataset?</t>
+  </si>
+  <si>
+    <t>What are the supported file extensions in Tableau?</t>
+  </si>
+  <si>
+    <t>What are the supported data types in Tableau?</t>
+  </si>
+  <si>
+    <t>What are sets?</t>
+  </si>
+  <si>
+    <t>What are groups in Tableau?</t>
+  </si>
+  <si>
+    <t>What are shelves?</t>
+  </si>
+  <si>
+    <t>Tell me something about Data blending in Tableau?</t>
+  </si>
+  <si>
+    <t>How do you generally perform load testing in Tableau?</t>
+  </si>
+  <si>
+    <t>Why would someone not use Tableau?</t>
+  </si>
+  <si>
+    <t>What is Tableau data engine?</t>
+  </si>
+  <si>
+    <t>What are the various types of filters in Tableau?</t>
+  </si>
+  <si>
+    <t>What are dual axes?</t>
+  </si>
+  <si>
+    <t>What is the difference between a tree and heat map?</t>
+  </si>
+  <si>
+    <t>What are extracts and schedules in Tableau server?</t>
+  </si>
+  <si>
+    <t>What are the components in a dashboard?</t>
+  </si>
+  <si>
+    <t>What is a TDE file?</t>
+  </si>
+  <si>
+    <t>What is the story in Tableau?</t>
+  </si>
+  <si>
+    <t>What are different Tableau files?</t>
+  </si>
+  <si>
+    <t>How do you embed views into webpages?</t>
+  </si>
+  <si>
+    <t>What is the maximum no. of rows Tableau can utilize at one time?</t>
+  </si>
+  <si>
+    <t>Mention what is the difference between published data sources and embedded data sources in Tableau?</t>
+  </si>
+  <si>
+    <t>What is the DRIVE Program Methodology?</t>
+  </si>
+  <si>
+    <t>How to use groups in a calculated field?</t>
+  </si>
+  <si>
+    <t>Explain when would you use Joins vs. Blending in Tableau?</t>
+  </si>
+  <si>
+    <t>What is Assume referential integrity?</t>
+  </si>
+  <si>
+    <t>What is a Calculated Field, and How Will You Create One?</t>
+  </si>
+  <si>
+    <t>How Can You Display the Top Five and Bottom Five Sales in the Same View?</t>
+  </si>
+  <si>
+    <t>What is the Rank Function in Tableau?</t>
+  </si>
+  <si>
+    <t>What is the difference between Tableau and other similar tools like QlikView or IBM Cognos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Tableau and its working. </t>
+  </si>
+  <si>
+    <t>How calculations work</t>
+  </si>
+  <si>
+    <t>How a query is processed when visualization is created.</t>
+  </si>
+  <si>
+    <t>Thoroughly know about Dimensions and Measures because that is one of the important concepts in Tableau.</t>
+  </si>
+  <si>
+    <t>Get acquainted with the best practices of creating dashboards and visualizations and also discrete and continuous views.</t>
+  </si>
+  <si>
+    <t>Explain why you like Tableau or how it differs from other similar tools like QlikView or IBM Cognos. Your interest in BI tools will put you ahead in the competition.</t>
+  </si>
+  <si>
+    <t>What are the scenarios where you’ll use Live connection or Data extract in Tableau?</t>
+  </si>
+  <si>
+    <t>How dashboards are deployed on the Server.</t>
+  </si>
+  <si>
+    <t>What was the maximum amount of data you have handled in Tableau? If you are learning Tableau, while practicing, check the size of your visualization or the TDE file.</t>
+  </si>
+  <si>
+    <t>Create some visualization stories for sample work.</t>
+  </si>
+  <si>
+    <t>How you will take requirements before creating a dashboarding application.</t>
+  </si>
+  <si>
+    <t>What was your development methodology: Waterfall or Agile?</t>
+  </si>
+  <si>
+    <t>How much time it takes you to create a dashboard.</t>
+  </si>
+  <si>
+    <t>Contents
+	1.	Business Intelligence 
+	⁃	Data Analytics
+	⁃	Business Analytics
+	2.	Data Types
+	3.	Continuous vs Discrete
+	4.	Measure vs Dimension
+	5.	Conversions
+	⁃	Continuous to Discrete
+	⁃	Measure to Dimension</t>
+  </si>
+  <si>
+    <t>Contents
+        1.        Data Visualisation vs Visual Analytics
+        2.        Data Connections in Tableau
+        ⁃        Live connection
+        ⁃        Extract connection
+        3.        Aggregation on Dimensions and Measures</t>
+  </si>
+  <si>
+    <t>Contents
+        3.        Parameters  -  Applications Data Aggregation and Granularity</t>
+  </si>
+  <si>
+    <t>Contents
+        3.        Order of ops
+        4.        Charts in Tooltip</t>
+  </si>
+  <si>
+    <t>Contents
+	1.	Parameters (Applications)
+	⁃	Switching btw charts
+	⁃	Swapping fields
+	2.	Joins
+	⁃	Building a map visualisation
+	⁃	Cross-database join
+	3.	Relationship
+	4.	Unions
+	5.	Blend</t>
+  </si>
+  <si>
+    <t>Contents
+	1.	Blending in Tableau
+	2.	Order of Operations
+	⁃	Data Source Filters
+	3.	Hierarchy
+	4.	Storyline in Dashboard
+	5.	Creating Dashboard
+	6.	Dashboard Objects
+	⁃	Horizontal and Vertical containers
+	⁃	URL object
+	7.	Actions in dashboard
+	8.	Stories
+	9.	Increase efficiency of dashboard</t>
+  </si>
+  <si>
+    <t>Charts
+1. Line Chart
+2. Bar Chart
+3. Pie Chart
+4. Histogram
+5. Text Table
+6. Highlight Table
+7. Heat Map
+8. Stacked Bar Chart
+9. Scatter Plot
+10. Tree Map
+11. Combined-Axis Chart
+12. Dual-Axis Chart
+13. Map - Drag Latitude in rows, Longitude in cols</t>
+  </si>
+  <si>
+    <t>Cleaning and Formatting data for analysis
+1. Data Interpreter
+2. Pivoting Data
+3. Data Source Filter</t>
+  </si>
+  <si>
+    <t>Data Structuring
+1. Groups
+2. Sets
+    1. Static
+    2. Dynamic
+    3. Combined
+3. Parameters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Filters - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://help.tableau.com/current/pro/desktop/en-us/order_of_operations.htm</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1. Types of Filter
+    1. Extract
+    2. Data Source
+    3. Context
+    4. Quick Filter
+    5. Cascading Filter - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=uK8K1C3Pxl0&amp;ab_channel=ArtofVisualization</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    6. Interactive Filter
+    7. Date Filter
+2. Order of Filters
+    1. Extract Filters
+    2. Data Source Filters
+    3. Context Filters
+    4. Dimension Filters
+    5. Measure Filters
+    6. Table Calc Filters</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculations
+1. Calculated Fields
+2. Operators
+3. Functions
+4. Types of Calculations
+    1. Row-level
+    2. Aggregate-level</t>
+  </si>
+  <si>
+    <t>Table Calculation Types (Add Table Calc Or Quick Table Calc)
+1. Percent of Total
+2. Rank
+3. Percentile
+4. …5 more
+Compute Using
+1. Table (across)
+2. Table (down)
+3. Pane (down)
+4. Specific Dimensions
+5. …5 more</t>
+  </si>
+  <si>
+    <t>Reference Line
+Adjustable Reference Line with parameter</t>
+  </si>
+  <si>
+    <t>Parameter - Create custom filters
+1. Dynamic Calc
+2. Dynamic Sets
+3. Switching btw charts
+4. Swapping Dim/Measures</t>
+  </si>
+  <si>
+    <t>Level of Detail calculation
+1. FIXED LOD - static - does not change on dimensions change
+2. INCLUDE LOD
+3. EXCLUDE LOD</t>
+  </si>
+  <si>
+    <t>Types of Data Mixtures
+1. JOIN - Cross DB JOIN
+2. UNION
+3. Relationship
+4. Blend</t>
+  </si>
+  <si>
+    <t>Data analysis</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>You will get a viz only if u have a dimension and a measure in 2 diff axis</t>
+  </si>
+  <si>
+    <t>Spreadsheet vs Crosstab</t>
+  </si>
+  <si>
+    <t>Calculated field vs Parameter</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>click into a tile</t>
+  </si>
+  <si>
+    <t>drill-down into it</t>
+  </si>
+  <si>
+    <t>expand the data into a new view</t>
+  </si>
+  <si>
+    <t>return back to the home page.</t>
+  </si>
+  <si>
+    <t>Charts inside Tooltip Mark - customise size</t>
+  </si>
+  <si>
+    <t>Reference Line</t>
+  </si>
+  <si>
+    <t>Analytics -&gt; Trend Line</t>
   </si>
   <si>
     <t>T1</t>
@@ -1595,7 +2053,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="31">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1674,6 +2132,64 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF05192D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF05192D"/>
+      <name val="Studio-Feixen-Sans"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF515151"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF515151"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF515151"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <color rgb="FF355453"/>
+      <name val="Lato"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
@@ -1743,6 +2259,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF355BB7"/>
         <bgColor rgb="FF355BB7"/>
       </patternFill>
@@ -1751,12 +2273,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD1DBF0"/>
         <bgColor rgb="FFD1DBF0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1956,7 +2472,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="141">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2200,97 +2716,147 @@
     <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="10" fontId="27" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="9" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="10" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="10" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="8" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="8" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="8" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2308,10 +2874,10 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2560,6 +3126,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6555,7 +7125,7 @@
       <c r="B14" s="44"/>
       <c r="C14" s="47">
         <f>RANDBETWEEN(5, 1000)</f>
-        <v>376</v>
+        <v>806</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>126</v>
@@ -15594,35 +16164,39 @@
       <c r="Z261" s="44"/>
     </row>
     <row r="262">
-      <c r="A262" s="56"/>
-      <c r="B262" s="44"/>
-      <c r="C262" s="47"/>
-      <c r="D262" s="44"/>
-      <c r="E262" s="44"/>
-      <c r="F262" s="44"/>
-      <c r="G262" s="44"/>
-      <c r="H262" s="44"/>
-      <c r="I262" s="44"/>
-      <c r="J262" s="44"/>
-      <c r="K262" s="44"/>
-      <c r="L262" s="44"/>
-      <c r="M262" s="44"/>
-      <c r="N262" s="44"/>
-      <c r="O262" s="44"/>
-      <c r="P262" s="44"/>
-      <c r="Q262" s="44"/>
-      <c r="R262" s="44"/>
-      <c r="S262" s="44"/>
-      <c r="T262" s="44"/>
-      <c r="U262" s="44"/>
-      <c r="V262" s="44"/>
-      <c r="W262" s="44"/>
-      <c r="X262" s="44"/>
-      <c r="Y262" s="44"/>
-      <c r="Z262" s="44"/>
+      <c r="A262" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B262" s="51"/>
+      <c r="C262" s="51"/>
+      <c r="D262" s="51"/>
+      <c r="E262" s="51"/>
+      <c r="F262" s="51"/>
+      <c r="G262" s="51"/>
+      <c r="H262" s="51"/>
+      <c r="I262" s="51"/>
+      <c r="J262" s="51"/>
+      <c r="K262" s="51"/>
+      <c r="L262" s="51"/>
+      <c r="M262" s="51"/>
+      <c r="N262" s="51"/>
+      <c r="O262" s="51"/>
+      <c r="P262" s="51"/>
+      <c r="Q262" s="51"/>
+      <c r="R262" s="51"/>
+      <c r="S262" s="51"/>
+      <c r="T262" s="51"/>
+      <c r="U262" s="51"/>
+      <c r="V262" s="51"/>
+      <c r="W262" s="51"/>
+      <c r="X262" s="51"/>
+      <c r="Y262" s="51"/>
+      <c r="Z262" s="51"/>
     </row>
     <row r="263">
-      <c r="A263" s="56"/>
+      <c r="A263" s="35" t="s">
+        <v>298</v>
+      </c>
       <c r="B263" s="44"/>
       <c r="C263" s="47"/>
       <c r="D263" s="44"/>
@@ -15650,7 +16224,9 @@
       <c r="Z263" s="44"/>
     </row>
     <row r="264">
-      <c r="A264" s="56"/>
+      <c r="A264" s="35" t="s">
+        <v>299</v>
+      </c>
       <c r="B264" s="44"/>
       <c r="C264" s="47"/>
       <c r="D264" s="44"/>
@@ -15678,7 +16254,9 @@
       <c r="Z264" s="44"/>
     </row>
     <row r="265">
-      <c r="A265" s="56"/>
+      <c r="A265" s="35" t="s">
+        <v>300</v>
+      </c>
       <c r="B265" s="44"/>
       <c r="C265" s="47"/>
       <c r="D265" s="44"/>
@@ -15706,7 +16284,9 @@
       <c r="Z265" s="44"/>
     </row>
     <row r="266">
-      <c r="A266" s="56"/>
+      <c r="A266" s="35" t="s">
+        <v>301</v>
+      </c>
       <c r="B266" s="44"/>
       <c r="C266" s="47"/>
       <c r="D266" s="44"/>
@@ -15734,7 +16314,9 @@
       <c r="Z266" s="44"/>
     </row>
     <row r="267">
-      <c r="A267" s="56"/>
+      <c r="A267" s="35" t="s">
+        <v>302</v>
+      </c>
       <c r="B267" s="44"/>
       <c r="C267" s="47"/>
       <c r="D267" s="44"/>
@@ -15762,7 +16344,9 @@
       <c r="Z267" s="44"/>
     </row>
     <row r="268">
-      <c r="A268" s="56"/>
+      <c r="A268" s="35" t="s">
+        <v>303</v>
+      </c>
       <c r="B268" s="44"/>
       <c r="C268" s="47"/>
       <c r="D268" s="44"/>
@@ -37379,7 +37963,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DEA07DB9-ED48-45D5-8D72-0A5A06B0D40E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D0F021FD-F408-40AD-9BF2-59AC08250F42}" filter="1" showAutoFilter="1">
       <autoFilter ref="$C$165:$E$174"/>
     </customSheetView>
   </customSheetViews>
@@ -37428,6 +38012,617 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="81" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="84"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" s="87"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="87"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="87"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="87"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="87"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="87"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="87"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="83" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="87"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" s="87"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" s="87"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="86" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="89" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="90" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="90" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="90" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="90" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="90" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="90" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="90" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="90" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="90" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="90" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="90" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="90" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="90" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="90" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="90" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="90" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="90" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="90" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="90" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="90" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="90" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="90" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="90" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="90" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="90" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="90" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="90" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="90" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="90" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="90" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="90" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="91" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="90" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="92" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="93" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="93" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="92" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="92" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="92" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="92" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="92" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="92" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="92" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="92" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="35"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="35"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="35" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="94" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="94"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="94" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="94"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="94"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="94" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="94"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="94" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="94"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="94" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="94"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="94"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="94" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="94"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="94" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="94"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" s="96"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="96"/>
+      <c r="G109" s="96"/>
+      <c r="H109" s="96"/>
+      <c r="I109" s="96"/>
+      <c r="J109" s="96"/>
+      <c r="K109" s="96"/>
+      <c r="L109" s="96"/>
+      <c r="M109" s="96"/>
+      <c r="N109" s="96"/>
+      <c r="O109" s="96"/>
+      <c r="P109" s="96"/>
+      <c r="Q109" s="96"/>
+      <c r="R109" s="96"/>
+      <c r="S109" s="96"/>
+      <c r="T109" s="96"/>
+      <c r="U109" s="96"/>
+      <c r="V109" s="96"/>
+      <c r="W109" s="96"/>
+      <c r="X109" s="96"/>
+      <c r="Y109" s="96"/>
+      <c r="Z109" s="96"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="97" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="97" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="98" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A95"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -37445,7 +38640,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="81"/>
+      <c r="R1" s="99"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -37473,7 +38668,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="81"/>
+      <c r="R2" s="99"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -37501,7 +38696,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="81"/>
+      <c r="R3" s="99"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -37513,7 +38708,7 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -37531,7 +38726,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="81"/>
+      <c r="R4" s="99"/>
       <c r="S4" s="7"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -37542,60 +38737,60 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" s="82" t="s">
+      <c r="D5" s="100" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="82" t="s">
+      <c r="M5" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="O5" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="P5" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q5" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="R5" s="81"/>
-      <c r="S5" s="83" t="s">
-        <v>305</v>
+      <c r="N5" s="100" t="s">
+        <v>407</v>
+      </c>
+      <c r="O5" s="100" t="s">
+        <v>408</v>
+      </c>
+      <c r="P5" s="100" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q5" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="R5" s="99"/>
+      <c r="S5" s="101" t="s">
+        <v>411</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -37606,60 +38801,60 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="84">
+      <c r="A6" s="102">
         <v>335982.0</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="85">
+      <c r="B6" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="103">
         <v>39556.0</v>
       </c>
-      <c r="D6" s="84" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" s="84">
+      <c r="D6" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="F6" s="102">
         <v>0.0</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="84" t="s">
+      <c r="K6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="102">
         <v>140.0</v>
       </c>
-      <c r="N6" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="O6" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="P6" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q6" s="84" t="s">
-        <v>312</v>
-      </c>
-      <c r="R6" s="81"/>
-      <c r="S6" s="86" t="s">
-        <v>313</v>
+      <c r="N6" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="O6" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="P6" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q6" s="102" t="s">
+        <v>418</v>
+      </c>
+      <c r="R6" s="99"/>
+      <c r="S6" s="104" t="s">
+        <v>419</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -37670,58 +38865,58 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="87">
+      <c r="A7" s="105">
         <v>335983.0</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="106">
         <v>39557.0</v>
       </c>
-      <c r="D7" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="F7" s="87">
+      <c r="D7" s="105" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="105">
         <v>0.0</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="87" t="s">
+      <c r="I7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="87" t="s">
+      <c r="K7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="87">
+      <c r="M7" s="105">
         <v>33.0</v>
       </c>
-      <c r="N7" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="O7" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="P7" s="87" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q7" s="87" t="s">
-        <v>317</v>
-      </c>
-      <c r="R7" s="81"/>
+      <c r="N7" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="O7" s="105" t="s">
+        <v>416</v>
+      </c>
+      <c r="P7" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q7" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="R7" s="99"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -37732,58 +38927,58 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="84">
+      <c r="A8" s="102">
         <v>335984.0</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="103">
         <v>39557.0</v>
       </c>
-      <c r="D8" s="84" t="s">
-        <v>318</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>319</v>
-      </c>
-      <c r="F8" s="84">
+      <c r="D8" s="102" t="s">
+        <v>424</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="102">
         <v>0.0</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="84" t="s">
+      <c r="L8" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="84">
+      <c r="M8" s="102">
         <v>9.0</v>
       </c>
-      <c r="N8" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="O8" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="P8" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q8" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="R8" s="81"/>
+      <c r="N8" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="O8" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="P8" s="102" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q8" s="102" t="s">
+        <v>427</v>
+      </c>
+      <c r="R8" s="99"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -37794,60 +38989,60 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="87">
+      <c r="A9" s="105">
         <v>335985.0</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="106">
         <v>39558.0</v>
       </c>
-      <c r="D9" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="F9" s="87">
+      <c r="D9" s="105" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" s="105">
         <v>0.0</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="I9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="105">
         <v>5.0</v>
       </c>
-      <c r="N9" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="O9" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="P9" s="87" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q9" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="R9" s="81"/>
+      <c r="N9" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="O9" s="105" t="s">
+        <v>416</v>
+      </c>
+      <c r="P9" s="105" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q9" s="105" t="s">
+        <v>431</v>
+      </c>
+      <c r="R9" s="99"/>
       <c r="S9" s="7" t="s">
-        <v>326</v>
+        <v>432</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -37858,60 +39053,60 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="84">
+      <c r="A10" s="102">
         <v>335986.0</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="103">
         <v>39558.0</v>
       </c>
-      <c r="D10" s="84" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="F10" s="84">
+      <c r="D10" s="102" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="102">
         <v>0.0</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="102">
         <v>5.0</v>
       </c>
-      <c r="N10" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="O10" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="P10" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q10" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="R10" s="81"/>
+      <c r="N10" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="O10" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="P10" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q10" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="R10" s="99"/>
       <c r="S10" s="7" t="s">
-        <v>331</v>
+        <v>437</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -37922,58 +39117,58 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="87">
+      <c r="A11" s="105">
         <v>335987.0</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="106">
         <v>39559.0</v>
       </c>
-      <c r="D11" s="87" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>333</v>
-      </c>
-      <c r="F11" s="87">
+      <c r="D11" s="105" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>439</v>
+      </c>
+      <c r="F11" s="105">
         <v>0.0</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="87" t="s">
+      <c r="H11" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="87" t="s">
+      <c r="I11" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="87" t="s">
+      <c r="J11" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="87" t="s">
+      <c r="K11" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="87" t="s">
+      <c r="L11" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="87">
+      <c r="M11" s="105">
         <v>6.0</v>
       </c>
-      <c r="N11" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="O11" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="P11" s="87" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q11" s="87" t="s">
-        <v>334</v>
-      </c>
-      <c r="R11" s="81"/>
+      <c r="N11" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="O11" s="105" t="s">
+        <v>416</v>
+      </c>
+      <c r="P11" s="105" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q11" s="105" t="s">
+        <v>440</v>
+      </c>
+      <c r="R11" s="99"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -37984,58 +39179,58 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="84">
+      <c r="A12" s="102">
         <v>335988.0</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="103">
         <v>39560.0</v>
       </c>
-      <c r="D12" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="F12" s="84">
+      <c r="D12" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" s="102">
         <v>0.0</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="84" t="s">
+      <c r="I12" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="84" t="s">
+      <c r="J12" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="84" t="s">
+      <c r="K12" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="84" t="s">
+      <c r="L12" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="84">
+      <c r="M12" s="102">
         <v>9.0</v>
       </c>
-      <c r="N12" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="O12" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="P12" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q12" s="84" t="s">
-        <v>338</v>
-      </c>
-      <c r="R12" s="81"/>
+      <c r="N12" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="O12" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="P12" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q12" s="102" t="s">
+        <v>444</v>
+      </c>
+      <c r="R12" s="99"/>
       <c r="S12" s="7"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
@@ -38046,60 +39241,60 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="87">
+      <c r="A13" s="105">
         <v>335989.0</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="106">
         <v>39561.0</v>
       </c>
-      <c r="D13" s="87" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" s="87">
+      <c r="D13" s="105" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13" s="105">
         <v>0.0</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="87" t="s">
+      <c r="I13" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="87" t="s">
+      <c r="J13" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="87" t="s">
+      <c r="K13" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="87">
+      <c r="M13" s="105">
         <v>6.0</v>
       </c>
-      <c r="N13" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="O13" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="P13" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q13" s="87" t="s">
-        <v>321</v>
-      </c>
-      <c r="R13" s="81"/>
-      <c r="S13" s="83" t="s">
-        <v>341</v>
+      <c r="N13" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="O13" s="105" t="s">
+        <v>416</v>
+      </c>
+      <c r="P13" s="105" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q13" s="105" t="s">
+        <v>427</v>
+      </c>
+      <c r="R13" s="99"/>
+      <c r="S13" s="101" t="s">
+        <v>447</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -38110,60 +39305,60 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="84">
+      <c r="A14" s="102">
         <v>335990.0</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="103">
         <v>39562.0</v>
       </c>
-      <c r="D14" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" s="84">
+      <c r="D14" s="102" t="s">
+        <v>448</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" s="102">
         <v>0.0</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="84" t="s">
+      <c r="I14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="84" t="s">
+      <c r="J14" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="84" t="s">
+      <c r="K14" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="L14" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="84">
+      <c r="M14" s="102">
         <v>3.0</v>
       </c>
-      <c r="N14" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="O14" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="P14" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q14" s="84" t="s">
-        <v>316</v>
-      </c>
-      <c r="R14" s="81"/>
-      <c r="S14" s="83" t="s">
-        <v>343</v>
+      <c r="N14" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="O14" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="P14" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q14" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="R14" s="99"/>
+      <c r="S14" s="101" t="s">
+        <v>449</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -38174,58 +39369,58 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="87">
+      <c r="A15" s="105">
         <v>335991.0</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="106">
         <v>39563.0</v>
       </c>
-      <c r="D15" s="87" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="F15" s="87">
+      <c r="D15" s="105" t="s">
+        <v>450</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="F15" s="105">
         <v>0.0</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="87" t="s">
+      <c r="I15" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="87" t="s">
+      <c r="J15" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="87" t="s">
+      <c r="K15" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="87" t="s">
+      <c r="L15" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="87">
+      <c r="M15" s="105">
         <v>66.0</v>
       </c>
-      <c r="N15" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="O15" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="P15" s="87" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q15" s="87" t="s">
-        <v>338</v>
-      </c>
-      <c r="R15" s="81"/>
+      <c r="N15" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="O15" s="105" t="s">
+        <v>416</v>
+      </c>
+      <c r="P15" s="105" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q15" s="105" t="s">
+        <v>444</v>
+      </c>
+      <c r="R15" s="99"/>
       <c r="S15" s="7"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -38236,58 +39431,58 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="84">
+      <c r="A16" s="102">
         <v>335992.0</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="85">
+      <c r="B16" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="103">
         <v>39564.0</v>
       </c>
-      <c r="D16" s="84" t="s">
-        <v>332</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>308</v>
-      </c>
-      <c r="F16" s="84">
+      <c r="D16" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="F16" s="102">
         <v>0.0</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="84" t="s">
+      <c r="J16" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="84" t="s">
+      <c r="K16" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="84" t="s">
+      <c r="L16" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="84">
+      <c r="M16" s="102">
         <v>7.0</v>
       </c>
-      <c r="N16" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="O16" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="P16" s="84" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q16" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="R16" s="81"/>
+      <c r="N16" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="O16" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="P16" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q16" s="102" t="s">
+        <v>443</v>
+      </c>
+      <c r="R16" s="99"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -38298,60 +39493,60 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="87">
+      <c r="A17" s="105">
         <v>335993.0</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="106">
         <v>39564.0</v>
       </c>
-      <c r="D17" s="87" t="s">
-        <v>345</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="87">
+      <c r="D17" s="105" t="s">
+        <v>451</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" s="105">
         <v>0.0</v>
       </c>
-      <c r="G17" s="87" t="s">
+      <c r="G17" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="87" t="s">
+      <c r="I17" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="87" t="s">
+      <c r="J17" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="87" t="s">
+      <c r="K17" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="87" t="s">
+      <c r="L17" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="87">
+      <c r="M17" s="105">
         <v>9.0</v>
       </c>
-      <c r="N17" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="O17" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="P17" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q17" s="87" t="s">
-        <v>346</v>
-      </c>
-      <c r="R17" s="81"/>
+      <c r="N17" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="O17" s="105" t="s">
+        <v>416</v>
+      </c>
+      <c r="P17" s="105" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q17" s="105" t="s">
+        <v>452</v>
+      </c>
+      <c r="R17" s="99"/>
       <c r="S17" s="7" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -38362,60 +39557,60 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="84">
+      <c r="A18" s="102">
         <v>335994.0</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="103">
         <v>39565.0</v>
       </c>
-      <c r="D18" s="84" t="s">
-        <v>348</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="F18" s="84">
+      <c r="D18" s="102" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>455</v>
+      </c>
+      <c r="F18" s="102">
         <v>0.0</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="84" t="s">
+      <c r="H18" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="84" t="s">
+      <c r="I18" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="84" t="s">
+      <c r="J18" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="84" t="s">
+      <c r="K18" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="84" t="s">
+      <c r="L18" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="84">
+      <c r="M18" s="102">
         <v>10.0</v>
       </c>
-      <c r="N18" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="O18" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="P18" s="84" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="84" t="s">
-        <v>317</v>
-      </c>
-      <c r="R18" s="81"/>
+      <c r="N18" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="O18" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="P18" s="102" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q18" s="102" t="s">
+        <v>423</v>
+      </c>
+      <c r="R18" s="99"/>
       <c r="S18" s="7" t="s">
-        <v>350</v>
+        <v>456</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -38426,58 +39621,58 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="87">
+      <c r="A19" s="105">
         <v>335995.0</v>
       </c>
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C19" s="106">
         <v>39565.0</v>
       </c>
-      <c r="D19" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="F19" s="87">
+      <c r="D19" s="105" t="s">
+        <v>457</v>
+      </c>
+      <c r="E19" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="F19" s="105">
         <v>0.0</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="87" t="s">
+      <c r="I19" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="87" t="s">
+      <c r="K19" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="87" t="s">
+      <c r="L19" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="87">
+      <c r="M19" s="105">
         <v>4.0</v>
       </c>
-      <c r="N19" s="87" t="s">
-        <v>309</v>
-      </c>
-      <c r="O19" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="P19" s="87" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q19" s="87" t="s">
-        <v>352</v>
-      </c>
-      <c r="R19" s="81"/>
+      <c r="N19" s="105" t="s">
+        <v>415</v>
+      </c>
+      <c r="O19" s="105" t="s">
+        <v>416</v>
+      </c>
+      <c r="P19" s="105" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q19" s="105" t="s">
+        <v>458</v>
+      </c>
+      <c r="R19" s="99"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
@@ -38488,58 +39683,58 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="84">
+      <c r="A20" s="102">
         <v>335996.0</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="85">
+      <c r="B20" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="103">
         <v>39566.0</v>
       </c>
-      <c r="D20" s="84" t="s">
-        <v>353</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>308</v>
-      </c>
-      <c r="F20" s="84">
+      <c r="D20" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="E20" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" s="102">
         <v>0.0</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="84" t="s">
+      <c r="I20" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="84" t="s">
+      <c r="J20" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="84" t="s">
+      <c r="K20" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="84" t="s">
+      <c r="L20" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="84">
+      <c r="M20" s="102">
         <v>13.0</v>
       </c>
-      <c r="N20" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="O20" s="84" t="s">
-        <v>310</v>
-      </c>
-      <c r="P20" s="84" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q20" s="84" t="s">
-        <v>334</v>
-      </c>
-      <c r="R20" s="81"/>
+      <c r="N20" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="O20" s="102" t="s">
+        <v>416</v>
+      </c>
+      <c r="P20" s="102" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q20" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="R20" s="99"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
@@ -38550,26 +39745,26 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="81"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="99"/>
       <c r="S21" s="7" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
@@ -38581,7 +39776,7 @@
     </row>
     <row r="22">
       <c r="A22" s="48" t="s">
-        <v>356</v>
+        <v>462</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -38599,7 +39794,7 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="81"/>
+      <c r="R22" s="99"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
@@ -38610,59 +39805,59 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="90" t="s">
-        <v>357</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>358</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>359</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>360</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>361</v>
-      </c>
-      <c r="G23" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="H23" s="90" t="s">
-        <v>363</v>
-      </c>
-      <c r="I23" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="J23" s="90" t="s">
-        <v>365</v>
-      </c>
-      <c r="K23" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="L23" s="90" t="s">
-        <v>367</v>
-      </c>
-      <c r="M23" s="90" t="s">
-        <v>368</v>
-      </c>
-      <c r="N23" s="90" t="s">
-        <v>369</v>
-      </c>
-      <c r="O23" s="90" t="s">
-        <v>370</v>
-      </c>
-      <c r="P23" s="90" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q23" s="90" t="s">
-        <v>372</v>
-      </c>
-      <c r="R23" s="91" t="s">
-        <v>373</v>
+      <c r="B23" s="108" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" s="108" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="108" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" s="108" t="s">
+        <v>467</v>
+      </c>
+      <c r="G23" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>469</v>
+      </c>
+      <c r="I23" s="108" t="s">
+        <v>470</v>
+      </c>
+      <c r="J23" s="108" t="s">
+        <v>471</v>
+      </c>
+      <c r="K23" s="108" t="s">
+        <v>472</v>
+      </c>
+      <c r="L23" s="108" t="s">
+        <v>473</v>
+      </c>
+      <c r="M23" s="108" t="s">
+        <v>474</v>
+      </c>
+      <c r="N23" s="108" t="s">
+        <v>475</v>
+      </c>
+      <c r="O23" s="108" t="s">
+        <v>476</v>
+      </c>
+      <c r="P23" s="108" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q23" s="108" t="s">
+        <v>478</v>
+      </c>
+      <c r="R23" s="109" t="s">
+        <v>479</v>
       </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -38674,62 +39869,62 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="92">
+      <c r="A24" s="110">
         <v>1216531.0</v>
       </c>
-      <c r="B24" s="93">
+      <c r="B24" s="111">
         <v>1.0</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="111">
         <v>0.0</v>
       </c>
-      <c r="D24" s="93">
+      <c r="D24" s="111">
         <v>1.0</v>
       </c>
-      <c r="E24" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F24" s="93" t="s">
-        <v>375</v>
-      </c>
-      <c r="G24" s="93" t="s">
-        <v>376</v>
-      </c>
-      <c r="H24" s="93">
+      <c r="E24" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="G24" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="H24" s="111">
         <v>1.0</v>
       </c>
-      <c r="I24" s="93">
+      <c r="I24" s="111">
         <v>0.0</v>
       </c>
-      <c r="J24" s="93">
+      <c r="J24" s="111">
         <v>1.0</v>
       </c>
-      <c r="K24" s="93">
+      <c r="K24" s="111">
         <v>0.0</v>
       </c>
-      <c r="L24" s="93">
+      <c r="L24" s="111">
         <v>0.0</v>
       </c>
-      <c r="M24" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="N24" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="O24" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="P24" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q24" s="93" t="s">
+      <c r="M24" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="N24" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="O24" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="P24" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q24" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="R24" s="94" t="s">
+      <c r="R24" s="112" t="s">
         <v>16</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>377</v>
+        <v>483</v>
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -38740,62 +39935,62 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="95">
+      <c r="A25" s="113">
         <v>1216531.0</v>
       </c>
-      <c r="B25" s="96">
+      <c r="B25" s="114">
         <v>1.0</v>
       </c>
-      <c r="C25" s="96">
+      <c r="C25" s="114">
         <v>0.0</v>
       </c>
-      <c r="D25" s="96">
+      <c r="D25" s="114">
         <v>2.0</v>
       </c>
-      <c r="E25" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="F25" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="G25" s="96" t="s">
-        <v>376</v>
-      </c>
-      <c r="H25" s="96">
+      <c r="E25" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="F25" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="G25" s="114" t="s">
+        <v>482</v>
+      </c>
+      <c r="H25" s="114">
         <v>0.0</v>
       </c>
-      <c r="I25" s="96">
+      <c r="I25" s="114">
         <v>0.0</v>
       </c>
-      <c r="J25" s="96">
+      <c r="J25" s="114">
         <v>0.0</v>
       </c>
-      <c r="K25" s="96">
+      <c r="K25" s="114">
         <v>0.0</v>
       </c>
-      <c r="L25" s="96">
+      <c r="L25" s="114">
         <v>0.0</v>
       </c>
-      <c r="M25" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="N25" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="O25" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="P25" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q25" s="96" t="s">
+      <c r="M25" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="N25" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="O25" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="P25" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q25" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="R25" s="97" t="s">
+      <c r="R25" s="115" t="s">
         <v>16</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
@@ -38806,58 +40001,58 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="92">
+      <c r="A26" s="110">
         <v>1216531.0</v>
       </c>
-      <c r="B26" s="93">
+      <c r="B26" s="111">
         <v>1.0</v>
       </c>
-      <c r="C26" s="93">
+      <c r="C26" s="111">
         <v>0.0</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="111">
         <v>3.0</v>
       </c>
-      <c r="E26" s="93" t="s">
-        <v>375</v>
-      </c>
-      <c r="F26" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="G26" s="93" t="s">
-        <v>376</v>
-      </c>
-      <c r="H26" s="93">
+      <c r="E26" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="F26" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="G26" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="H26" s="111">
         <v>0.0</v>
       </c>
-      <c r="I26" s="93">
+      <c r="I26" s="111">
         <v>0.0</v>
       </c>
-      <c r="J26" s="93">
+      <c r="J26" s="111">
         <v>0.0</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="111">
         <v>0.0</v>
       </c>
-      <c r="L26" s="93">
+      <c r="L26" s="111">
         <v>0.0</v>
       </c>
-      <c r="M26" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="N26" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="O26" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="P26" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q26" s="93" t="s">
+      <c r="M26" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="N26" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="O26" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="P26" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q26" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="R26" s="94" t="s">
+      <c r="R26" s="112" t="s">
         <v>16</v>
       </c>
       <c r="S26" s="5"/>
@@ -38870,58 +40065,58 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="95">
+      <c r="A27" s="113">
         <v>1216531.0</v>
       </c>
-      <c r="B27" s="96">
+      <c r="B27" s="114">
         <v>1.0</v>
       </c>
-      <c r="C27" s="96">
+      <c r="C27" s="114">
         <v>0.0</v>
       </c>
-      <c r="D27" s="96">
+      <c r="D27" s="114">
         <v>4.0</v>
       </c>
-      <c r="E27" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="F27" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="G27" s="96" t="s">
-        <v>376</v>
-      </c>
-      <c r="H27" s="96">
+      <c r="E27" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="F27" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="G27" s="114" t="s">
+        <v>482</v>
+      </c>
+      <c r="H27" s="114">
         <v>1.0</v>
       </c>
-      <c r="I27" s="96">
+      <c r="I27" s="114">
         <v>0.0</v>
       </c>
-      <c r="J27" s="96">
+      <c r="J27" s="114">
         <v>1.0</v>
       </c>
-      <c r="K27" s="96">
+      <c r="K27" s="114">
         <v>0.0</v>
       </c>
-      <c r="L27" s="96">
+      <c r="L27" s="114">
         <v>0.0</v>
       </c>
-      <c r="M27" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="N27" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="O27" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="P27" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q27" s="96" t="s">
+      <c r="M27" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="N27" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="O27" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="P27" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q27" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="R27" s="97" t="s">
+      <c r="R27" s="115" t="s">
         <v>16</v>
       </c>
       <c r="S27" s="5"/>
@@ -38934,62 +40129,62 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="92">
+      <c r="A28" s="110">
         <v>1216531.0</v>
       </c>
-      <c r="B28" s="93">
+      <c r="B28" s="111">
         <v>1.0</v>
       </c>
-      <c r="C28" s="93">
+      <c r="C28" s="111">
         <v>0.0</v>
       </c>
-      <c r="D28" s="93">
+      <c r="D28" s="111">
         <v>5.0</v>
       </c>
-      <c r="E28" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F28" s="93" t="s">
-        <v>375</v>
-      </c>
-      <c r="G28" s="93" t="s">
-        <v>376</v>
-      </c>
-      <c r="H28" s="93">
+      <c r="E28" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="F28" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="G28" s="111" t="s">
+        <v>482</v>
+      </c>
+      <c r="H28" s="111">
         <v>0.0</v>
       </c>
-      <c r="I28" s="93">
+      <c r="I28" s="111">
         <v>0.0</v>
       </c>
-      <c r="J28" s="93">
+      <c r="J28" s="111">
         <v>0.0</v>
       </c>
-      <c r="K28" s="93">
+      <c r="K28" s="111">
         <v>0.0</v>
       </c>
-      <c r="L28" s="93">
+      <c r="L28" s="111">
         <v>0.0</v>
       </c>
-      <c r="M28" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="N28" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="O28" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="P28" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" s="93" t="s">
+      <c r="M28" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="N28" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="O28" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="P28" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q28" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="R28" s="94" t="s">
+      <c r="R28" s="112" t="s">
         <v>16</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>379</v>
+        <v>485</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -39000,62 +40195,62 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="95">
+      <c r="A29" s="113">
         <v>1216531.0</v>
       </c>
-      <c r="B29" s="96">
+      <c r="B29" s="114">
         <v>1.0</v>
       </c>
-      <c r="C29" s="96">
+      <c r="C29" s="114">
         <v>0.0</v>
       </c>
-      <c r="D29" s="96">
+      <c r="D29" s="114">
         <v>6.0</v>
       </c>
-      <c r="E29" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="F29" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="G29" s="96" t="s">
-        <v>376</v>
-      </c>
-      <c r="H29" s="96">
+      <c r="E29" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="F29" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="G29" s="114" t="s">
+        <v>482</v>
+      </c>
+      <c r="H29" s="114">
         <v>6.0</v>
       </c>
-      <c r="I29" s="96">
+      <c r="I29" s="114">
         <v>0.0</v>
       </c>
-      <c r="J29" s="96">
+      <c r="J29" s="114">
         <v>6.0</v>
       </c>
-      <c r="K29" s="96">
+      <c r="K29" s="114">
         <v>0.0</v>
       </c>
-      <c r="L29" s="96">
+      <c r="L29" s="114">
         <v>0.0</v>
       </c>
-      <c r="M29" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="N29" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="O29" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="P29" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q29" s="96" t="s">
+      <c r="M29" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="N29" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="O29" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="P29" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q29" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="R29" s="97" t="s">
+      <c r="R29" s="115" t="s">
         <v>16</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -39066,62 +40261,62 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="92">
+      <c r="A30" s="110">
         <v>1216531.0</v>
       </c>
-      <c r="B30" s="93">
+      <c r="B30" s="111">
         <v>1.0</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="111">
         <v>1.0</v>
       </c>
-      <c r="D30" s="93">
+      <c r="D30" s="111">
         <v>3.0</v>
       </c>
-      <c r="E30" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F30" s="93" t="s">
-        <v>375</v>
-      </c>
-      <c r="G30" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="H30" s="93">
+      <c r="E30" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="G30" s="111" t="s">
+        <v>487</v>
+      </c>
+      <c r="H30" s="111">
         <v>0.0</v>
       </c>
-      <c r="I30" s="93">
+      <c r="I30" s="111">
         <v>0.0</v>
       </c>
-      <c r="J30" s="93">
+      <c r="J30" s="111">
         <v>0.0</v>
       </c>
-      <c r="K30" s="93">
+      <c r="K30" s="111">
         <v>0.0</v>
       </c>
-      <c r="L30" s="93">
+      <c r="L30" s="111">
         <v>0.0</v>
       </c>
-      <c r="M30" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="N30" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="O30" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="P30" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q30" s="93" t="s">
+      <c r="M30" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="N30" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="O30" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="P30" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q30" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="R30" s="94" t="s">
+      <c r="R30" s="112" t="s">
         <v>16</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>382</v>
+        <v>488</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -39132,58 +40327,58 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="95">
+      <c r="A31" s="113">
         <v>1216531.0</v>
       </c>
-      <c r="B31" s="96">
+      <c r="B31" s="114">
         <v>1.0</v>
       </c>
-      <c r="C31" s="96">
+      <c r="C31" s="114">
         <v>1.0</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="114">
         <v>4.0</v>
       </c>
-      <c r="E31" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="F31" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="G31" s="96" t="s">
-        <v>381</v>
-      </c>
-      <c r="H31" s="96">
+      <c r="E31" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="F31" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="G31" s="114" t="s">
+        <v>487</v>
+      </c>
+      <c r="H31" s="114">
         <v>0.0</v>
       </c>
-      <c r="I31" s="96">
+      <c r="I31" s="114">
         <v>0.0</v>
       </c>
-      <c r="J31" s="96">
+      <c r="J31" s="114">
         <v>0.0</v>
       </c>
-      <c r="K31" s="96">
+      <c r="K31" s="114">
         <v>0.0</v>
       </c>
-      <c r="L31" s="96">
+      <c r="L31" s="114">
         <v>0.0</v>
       </c>
-      <c r="M31" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="N31" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="O31" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="P31" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q31" s="96" t="s">
+      <c r="M31" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="N31" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="O31" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="P31" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q31" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="97" t="s">
+      <c r="R31" s="115" t="s">
         <v>16</v>
       </c>
       <c r="S31" s="5"/>
@@ -39196,58 +40391,58 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="92">
+      <c r="A32" s="110">
         <v>1216531.0</v>
       </c>
-      <c r="B32" s="93">
+      <c r="B32" s="111">
         <v>1.0</v>
       </c>
-      <c r="C32" s="93">
+      <c r="C32" s="111">
         <v>1.0</v>
       </c>
-      <c r="D32" s="93">
+      <c r="D32" s="111">
         <v>5.0</v>
       </c>
-      <c r="E32" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F32" s="93" t="s">
-        <v>375</v>
-      </c>
-      <c r="G32" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="H32" s="93">
+      <c r="E32" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="F32" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="G32" s="111" t="s">
+        <v>487</v>
+      </c>
+      <c r="H32" s="111">
         <v>4.0</v>
       </c>
-      <c r="I32" s="93">
+      <c r="I32" s="111">
         <v>0.0</v>
       </c>
-      <c r="J32" s="93">
+      <c r="J32" s="111">
         <v>4.0</v>
       </c>
-      <c r="K32" s="93">
+      <c r="K32" s="111">
         <v>0.0</v>
       </c>
-      <c r="L32" s="93">
+      <c r="L32" s="111">
         <v>0.0</v>
       </c>
-      <c r="M32" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="N32" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="O32" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="P32" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q32" s="93" t="s">
+      <c r="M32" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="N32" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="O32" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="P32" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q32" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="94" t="s">
+      <c r="R32" s="112" t="s">
         <v>16</v>
       </c>
       <c r="S32" s="5"/>
@@ -39260,62 +40455,62 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="95">
+      <c r="A33" s="113">
         <v>1216531.0</v>
       </c>
-      <c r="B33" s="96">
+      <c r="B33" s="114">
         <v>1.0</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="114">
         <v>1.0</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="114">
         <v>6.0</v>
       </c>
-      <c r="E33" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="F33" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="G33" s="96" t="s">
-        <v>381</v>
-      </c>
-      <c r="H33" s="96">
+      <c r="E33" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="F33" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="G33" s="114" t="s">
+        <v>487</v>
+      </c>
+      <c r="H33" s="114">
         <v>1.0</v>
       </c>
-      <c r="I33" s="96">
+      <c r="I33" s="114">
         <v>0.0</v>
       </c>
-      <c r="J33" s="96">
+      <c r="J33" s="114">
         <v>1.0</v>
       </c>
-      <c r="K33" s="96">
+      <c r="K33" s="114">
         <v>0.0</v>
       </c>
-      <c r="L33" s="96">
+      <c r="L33" s="114">
         <v>0.0</v>
       </c>
-      <c r="M33" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="N33" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="O33" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="P33" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q33" s="96" t="s">
+      <c r="M33" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="N33" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="O33" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="P33" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q33" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="97" t="s">
+      <c r="R33" s="115" t="s">
         <v>16</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>383</v>
+        <v>489</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -39326,62 +40521,62 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="92">
+      <c r="A34" s="110">
         <v>1216531.0</v>
       </c>
-      <c r="B34" s="93">
+      <c r="B34" s="111">
         <v>1.0</v>
       </c>
-      <c r="C34" s="93">
+      <c r="C34" s="111">
         <v>1.0</v>
       </c>
-      <c r="D34" s="93">
+      <c r="D34" s="111">
         <v>1.0</v>
       </c>
-      <c r="E34" s="93" t="s">
-        <v>375</v>
-      </c>
-      <c r="F34" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="G34" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="H34" s="93">
+      <c r="E34" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="F34" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="G34" s="111" t="s">
+        <v>487</v>
+      </c>
+      <c r="H34" s="111">
         <v>1.0</v>
       </c>
-      <c r="I34" s="93">
+      <c r="I34" s="111">
         <v>0.0</v>
       </c>
-      <c r="J34" s="93">
+      <c r="J34" s="111">
         <v>1.0</v>
       </c>
-      <c r="K34" s="93">
+      <c r="K34" s="111">
         <v>0.0</v>
       </c>
-      <c r="L34" s="93">
+      <c r="L34" s="111">
         <v>0.0</v>
       </c>
-      <c r="M34" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="N34" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="O34" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="P34" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q34" s="93" t="s">
+      <c r="M34" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="N34" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="O34" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="P34" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q34" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="94" t="s">
+      <c r="R34" s="112" t="s">
         <v>16</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -39392,58 +40587,58 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="95">
+      <c r="A35" s="113">
         <v>1216531.0</v>
       </c>
-      <c r="B35" s="96">
+      <c r="B35" s="114">
         <v>1.0</v>
       </c>
-      <c r="C35" s="96">
+      <c r="C35" s="114">
         <v>1.0</v>
       </c>
-      <c r="D35" s="96">
+      <c r="D35" s="114">
         <v>2.0</v>
       </c>
-      <c r="E35" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="F35" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="G35" s="96" t="s">
-        <v>381</v>
-      </c>
-      <c r="H35" s="96">
+      <c r="E35" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="F35" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="G35" s="114" t="s">
+        <v>487</v>
+      </c>
+      <c r="H35" s="114">
         <v>0.0</v>
       </c>
-      <c r="I35" s="96">
+      <c r="I35" s="114">
         <v>4.0</v>
       </c>
-      <c r="J35" s="96">
+      <c r="J35" s="114">
         <v>4.0</v>
       </c>
-      <c r="K35" s="96">
+      <c r="K35" s="114">
         <v>0.0</v>
       </c>
-      <c r="L35" s="96">
+      <c r="L35" s="114">
         <v>0.0</v>
       </c>
-      <c r="M35" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="N35" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="O35" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="P35" s="96" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q35" s="96" t="s">
+      <c r="M35" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="N35" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="O35" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="P35" s="114" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q35" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="R35" s="97" t="s">
+      <c r="R35" s="115" t="s">
         <v>16</v>
       </c>
       <c r="S35" s="5"/>
@@ -39456,58 +40651,58 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="92">
+      <c r="A36" s="110">
         <v>1216531.0</v>
       </c>
-      <c r="B36" s="93">
+      <c r="B36" s="111">
         <v>1.0</v>
       </c>
-      <c r="C36" s="93">
+      <c r="C36" s="111">
         <v>2.0</v>
       </c>
-      <c r="D36" s="93">
+      <c r="D36" s="111">
         <v>1.0</v>
       </c>
-      <c r="E36" s="93" t="s">
-        <v>374</v>
-      </c>
-      <c r="F36" s="93" t="s">
-        <v>375</v>
-      </c>
-      <c r="G36" s="93" t="s">
-        <v>386</v>
-      </c>
-      <c r="H36" s="93">
+      <c r="E36" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="F36" s="111" t="s">
+        <v>481</v>
+      </c>
+      <c r="G36" s="111" t="s">
+        <v>492</v>
+      </c>
+      <c r="H36" s="111">
         <v>0.0</v>
       </c>
-      <c r="I36" s="93">
+      <c r="I36" s="111">
         <v>0.0</v>
       </c>
-      <c r="J36" s="93">
+      <c r="J36" s="111">
         <v>0.0</v>
       </c>
-      <c r="K36" s="93">
+      <c r="K36" s="111">
         <v>0.0</v>
       </c>
-      <c r="L36" s="93">
+      <c r="L36" s="111">
         <v>0.0</v>
       </c>
-      <c r="M36" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="N36" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="O36" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="P36" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q36" s="93" t="s">
+      <c r="M36" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="N36" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="O36" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="P36" s="111" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q36" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="R36" s="94" t="s">
+      <c r="R36" s="112" t="s">
         <v>16</v>
       </c>
       <c r="S36" s="5"/>
@@ -39520,62 +40715,62 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="95">
+      <c r="A37" s="113">
         <v>1216531.0</v>
       </c>
-      <c r="B37" s="96">
+      <c r="B37" s="114">
         <v>1.0</v>
       </c>
-      <c r="C37" s="96">
+      <c r="C37" s="114">
         <v>2.0</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="114">
         <v>2.0</v>
       </c>
-      <c r="E37" s="96" t="s">
-        <v>374</v>
-      </c>
-      <c r="F37" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="G37" s="96" t="s">
-        <v>386</v>
-      </c>
-      <c r="H37" s="96">
+      <c r="E37" s="114" t="s">
+        <v>480</v>
+      </c>
+      <c r="F37" s="114" t="s">
+        <v>481</v>
+      </c>
+      <c r="G37" s="114" t="s">
+        <v>492</v>
+      </c>
+      <c r="H37" s="114">
         <v>0.0</v>
       </c>
-      <c r="I37" s="96">
+      <c r="I37" s="114">
         <v>0.0</v>
       </c>
-      <c r="J37" s="96">
+      <c r="J37" s="114">
         <v>0.0</v>
       </c>
-      <c r="K37" s="96">
+      <c r="K37" s="114">
         <v>0.0</v>
       </c>
-      <c r="L37" s="96">
+      <c r="L37" s="114">
         <v>0.0</v>
       </c>
-      <c r="M37" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="N37" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="O37" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="P37" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q37" s="96" t="s">
+      <c r="M37" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="N37" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="O37" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="P37" s="114" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q37" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="R37" s="97" t="s">
+      <c r="R37" s="115" t="s">
         <v>16</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>387</v>
+        <v>493</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -39603,9 +40798,9 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="81"/>
+      <c r="R38" s="99"/>
       <c r="S38" s="7" t="s">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -39633,7 +40828,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="81"/>
+      <c r="R39" s="99"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -39645,7 +40840,7 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>389</v>
+        <v>495</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -39663,7 +40858,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="81"/>
+      <c r="R40" s="99"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -39674,16 +40869,16 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="98" t="s">
-        <v>390</v>
-      </c>
-      <c r="B41" s="99" t="s">
+      <c r="A41" s="116" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="118" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="5"/>
@@ -39699,9 +40894,9 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="81"/>
+      <c r="R41" s="99"/>
       <c r="S41" s="7" t="s">
-        <v>391</v>
+        <v>497</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -39712,16 +40907,16 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="101" t="s">
-        <v>392</v>
-      </c>
-      <c r="B42" s="102">
+      <c r="A42" s="119" t="s">
+        <v>498</v>
+      </c>
+      <c r="B42" s="120">
         <v>106.0</v>
       </c>
-      <c r="C42" s="102">
+      <c r="C42" s="120">
         <v>120.0</v>
       </c>
-      <c r="D42" s="103">
+      <c r="D42" s="121">
         <v>91.0</v>
       </c>
       <c r="E42" s="5"/>
@@ -39737,9 +40932,9 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
-      <c r="R42" s="81"/>
+      <c r="R42" s="99"/>
       <c r="S42" s="7" t="s">
-        <v>393</v>
+        <v>499</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -39750,16 +40945,16 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="104" t="s">
-        <v>394</v>
-      </c>
-      <c r="B43" s="105">
+      <c r="A43" s="122" t="s">
+        <v>500</v>
+      </c>
+      <c r="B43" s="123">
         <v>97.0</v>
       </c>
-      <c r="C43" s="105">
+      <c r="C43" s="123">
         <v>106.0</v>
       </c>
-      <c r="D43" s="106">
+      <c r="D43" s="124">
         <v>87.0</v>
       </c>
       <c r="E43" s="5"/>
@@ -39775,7 +40970,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="81"/>
+      <c r="R43" s="99"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -39786,16 +40981,16 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="101" t="s">
-        <v>395</v>
-      </c>
-      <c r="B44" s="102">
+      <c r="A44" s="119" t="s">
+        <v>501</v>
+      </c>
+      <c r="B44" s="120">
         <v>51.0</v>
       </c>
-      <c r="C44" s="102">
+      <c r="C44" s="120">
         <v>48.0</v>
       </c>
-      <c r="D44" s="103">
+      <c r="D44" s="121">
         <v>24.0</v>
       </c>
       <c r="E44" s="5"/>
@@ -39811,7 +41006,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
-      <c r="R44" s="81"/>
+      <c r="R44" s="99"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -39822,16 +41017,16 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="104" t="s">
-        <v>396</v>
-      </c>
-      <c r="B45" s="105">
+      <c r="A45" s="122" t="s">
+        <v>502</v>
+      </c>
+      <c r="B45" s="123">
         <v>61.0</v>
       </c>
-      <c r="C45" s="105">
+      <c r="C45" s="123">
         <v>61.0</v>
       </c>
-      <c r="D45" s="106">
+      <c r="D45" s="124">
         <v>43.0</v>
       </c>
       <c r="E45" s="5"/>
@@ -39847,9 +41042,9 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="81"/>
+      <c r="R45" s="99"/>
       <c r="S45" s="7" t="s">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -39877,9 +41072,9 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
-      <c r="R46" s="81"/>
+      <c r="R46" s="99"/>
       <c r="S46" s="7" t="s">
-        <v>398</v>
+        <v>504</v>
       </c>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -39907,7 +41102,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="81"/>
+      <c r="R47" s="99"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -39935,7 +41130,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
-      <c r="R48" s="81"/>
+      <c r="R48" s="99"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -39947,7 +41142,7 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -39965,7 +41160,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="81"/>
+      <c r="R49" s="99"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -39976,14 +41171,14 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="109" t="s">
-        <v>400</v>
+      <c r="C50" s="127" t="s">
+        <v>506</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -39999,7 +41194,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="81"/>
+      <c r="R50" s="99"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -40010,13 +41205,13 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="111" t="s">
+      <c r="B51" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="112" t="str">
+      <c r="C51" s="130" t="str">
         <f t="shared" ref="C51:C79" si="1">IF(A51=B51, "yes", "no")</f>
         <v>no</v>
       </c>
@@ -40034,7 +41229,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="81"/>
+      <c r="R51" s="99"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -40045,13 +41240,13 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="113" t="s">
+      <c r="A52" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="112" t="str">
+      <c r="C52" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40069,7 +41264,7 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-      <c r="R52" s="81"/>
+      <c r="R52" s="99"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -40080,13 +41275,13 @@
       <c r="Z52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="111" t="s">
+      <c r="B53" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="112" t="str">
+      <c r="C53" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40104,7 +41299,7 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="81"/>
+      <c r="R53" s="99"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
@@ -40115,13 +41310,13 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="114" t="s">
+      <c r="B54" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="112" t="str">
+      <c r="C54" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40139,7 +41334,7 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-      <c r="R54" s="81"/>
+      <c r="R54" s="99"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
@@ -40150,13 +41345,13 @@
       <c r="Z54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="110" t="s">
+      <c r="A55" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="111" t="s">
+      <c r="B55" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="112" t="str">
+      <c r="C55" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40174,7 +41369,7 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-      <c r="R55" s="81"/>
+      <c r="R55" s="99"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -40185,13 +41380,13 @@
       <c r="Z55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="114" t="s">
+      <c r="B56" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="112" t="str">
+      <c r="C56" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40209,7 +41404,7 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="R56" s="81"/>
+      <c r="R56" s="99"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -40220,13 +41415,13 @@
       <c r="Z56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="110" t="s">
+      <c r="A57" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="111" t="s">
+      <c r="B57" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="112" t="str">
+      <c r="C57" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40244,7 +41439,7 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="81"/>
+      <c r="R57" s="99"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
@@ -40255,13 +41450,13 @@
       <c r="Z57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="112" t="str">
+      <c r="C58" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40279,7 +41474,7 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="81"/>
+      <c r="R58" s="99"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
@@ -40290,13 +41485,13 @@
       <c r="Z58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="111" t="s">
+      <c r="B59" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="112" t="str">
+      <c r="C59" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40314,7 +41509,7 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="81"/>
+      <c r="R59" s="99"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
@@ -40325,13 +41520,13 @@
       <c r="Z59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="113" t="s">
+      <c r="A60" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="114" t="s">
+      <c r="B60" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="112" t="str">
+      <c r="C60" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40349,7 +41544,7 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="81"/>
+      <c r="R60" s="99"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
@@ -40360,13 +41555,13 @@
       <c r="Z60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="111" t="s">
+      <c r="B61" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="112" t="str">
+      <c r="C61" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40384,7 +41579,7 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="81"/>
+      <c r="R61" s="99"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
@@ -40395,13 +41590,13 @@
       <c r="Z61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="113" t="s">
+      <c r="A62" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="114" t="s">
+      <c r="B62" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="112" t="str">
+      <c r="C62" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40419,7 +41614,7 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-      <c r="R62" s="81"/>
+      <c r="R62" s="99"/>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
@@ -40430,13 +41625,13 @@
       <c r="Z62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="110" t="s">
+      <c r="A63" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="112" t="str">
+      <c r="C63" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40454,7 +41649,7 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
-      <c r="R63" s="81"/>
+      <c r="R63" s="99"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
@@ -40465,13 +41660,13 @@
       <c r="Z63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="113" t="s">
+      <c r="A64" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="112" t="str">
+      <c r="C64" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40489,7 +41684,7 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
-      <c r="R64" s="81"/>
+      <c r="R64" s="99"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
@@ -40500,13 +41695,13 @@
       <c r="Z64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="111" t="s">
+      <c r="B65" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="112" t="str">
+      <c r="C65" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40524,7 +41719,7 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
-      <c r="R65" s="81"/>
+      <c r="R65" s="99"/>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
@@ -40535,13 +41730,13 @@
       <c r="Z65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="113" t="s">
+      <c r="A66" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="114" t="s">
+      <c r="B66" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="112" t="str">
+      <c r="C66" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40559,7 +41754,7 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
-      <c r="R66" s="81"/>
+      <c r="R66" s="99"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
@@ -40570,13 +41765,13 @@
       <c r="Z66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="111" t="s">
+      <c r="B67" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="112" t="str">
+      <c r="C67" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40594,7 +41789,7 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
-      <c r="R67" s="81"/>
+      <c r="R67" s="99"/>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
@@ -40605,13 +41800,13 @@
       <c r="Z67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="113" t="s">
+      <c r="A68" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="114" t="s">
+      <c r="B68" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="112" t="str">
+      <c r="C68" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40629,7 +41824,7 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
-      <c r="R68" s="81"/>
+      <c r="R68" s="99"/>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
@@ -40640,13 +41835,13 @@
       <c r="Z68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="C69" s="112" t="str">
+      <c r="C69" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40664,7 +41859,7 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="81"/>
+      <c r="R69" s="99"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
@@ -40675,13 +41870,13 @@
       <c r="Z69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="113" t="s">
+      <c r="A70" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="114" t="s">
+      <c r="B70" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="112" t="str">
+      <c r="C70" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40699,7 +41894,7 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
-      <c r="R70" s="81"/>
+      <c r="R70" s="99"/>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
@@ -40710,13 +41905,13 @@
       <c r="Z70" s="5"/>
     </row>
     <row r="71">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="111" t="s">
+      <c r="B71" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="112" t="str">
+      <c r="C71" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40734,7 +41929,7 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
-      <c r="R71" s="81"/>
+      <c r="R71" s="99"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
@@ -40745,13 +41940,13 @@
       <c r="Z71" s="5"/>
     </row>
     <row r="72">
-      <c r="A72" s="113" t="s">
+      <c r="A72" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="112" t="str">
+      <c r="C72" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40769,7 +41964,7 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
-      <c r="R72" s="81"/>
+      <c r="R72" s="99"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
@@ -40780,13 +41975,13 @@
       <c r="Z72" s="5"/>
     </row>
     <row r="73">
-      <c r="A73" s="110" t="s">
+      <c r="A73" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="111" t="s">
+      <c r="B73" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="112" t="str">
+      <c r="C73" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40804,7 +41999,7 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
-      <c r="R73" s="81"/>
+      <c r="R73" s="99"/>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
@@ -40815,13 +42010,13 @@
       <c r="Z73" s="5"/>
     </row>
     <row r="74">
-      <c r="A74" s="113" t="s">
+      <c r="A74" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="114" t="s">
+      <c r="B74" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="112" t="str">
+      <c r="C74" s="130" t="str">
         <f t="shared" si="1"/>
         <v>no</v>
       </c>
@@ -40839,7 +42034,7 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
-      <c r="R74" s="81"/>
+      <c r="R74" s="99"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
@@ -40850,13 +42045,13 @@
       <c r="Z74" s="5"/>
     </row>
     <row r="75">
-      <c r="A75" s="110" t="s">
+      <c r="A75" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="111" t="s">
+      <c r="B75" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="112" t="str">
+      <c r="C75" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40874,7 +42069,7 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
-      <c r="R75" s="81"/>
+      <c r="R75" s="99"/>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
@@ -40885,13 +42080,13 @@
       <c r="Z75" s="5"/>
     </row>
     <row r="76">
-      <c r="A76" s="113" t="s">
+      <c r="A76" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="114" t="s">
+      <c r="B76" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="112" t="str">
+      <c r="C76" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40909,7 +42104,7 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="81"/>
+      <c r="R76" s="99"/>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
@@ -40920,13 +42115,13 @@
       <c r="Z76" s="5"/>
     </row>
     <row r="77">
-      <c r="A77" s="110" t="s">
+      <c r="A77" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="111" t="s">
+      <c r="B77" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="112" t="str">
+      <c r="C77" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40944,7 +42139,7 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
-      <c r="R77" s="81"/>
+      <c r="R77" s="99"/>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
@@ -40955,13 +42150,13 @@
       <c r="Z77" s="5"/>
     </row>
     <row r="78">
-      <c r="A78" s="113" t="s">
+      <c r="A78" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="112" t="str">
+      <c r="C78" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -40979,7 +42174,7 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5"/>
-      <c r="R78" s="81"/>
+      <c r="R78" s="99"/>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
@@ -40990,13 +42185,13 @@
       <c r="Z78" s="5"/>
     </row>
     <row r="79">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="111" t="s">
+      <c r="B79" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="112" t="str">
+      <c r="C79" s="130" t="str">
         <f t="shared" si="1"/>
         <v>yes</v>
       </c>
@@ -41014,7 +42209,7 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="81"/>
+      <c r="R79" s="99"/>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
@@ -41042,7 +42237,7 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-      <c r="R80" s="81"/>
+      <c r="R80" s="99"/>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
@@ -41070,7 +42265,7 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
-      <c r="R81" s="81"/>
+      <c r="R81" s="99"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
@@ -41098,7 +42293,7 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
-      <c r="R82" s="81"/>
+      <c r="R82" s="99"/>
       <c r="S82" s="5"/>
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
@@ -41110,7 +42305,7 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>401</v>
+        <v>507</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -41128,7 +42323,7 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
-      <c r="R83" s="81"/>
+      <c r="R83" s="99"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
@@ -41139,68 +42334,68 @@
       <c r="Z83" s="5"/>
     </row>
     <row r="84">
-      <c r="A84" s="115" t="s">
+      <c r="A84" s="133" t="s">
         <v>233</v>
       </c>
-      <c r="B84" s="115" t="s">
+      <c r="B84" s="133" t="s">
         <v>234</v>
       </c>
-      <c r="C84" s="116" t="s">
+      <c r="C84" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="D84" s="115" t="s">
-        <v>402</v>
-      </c>
-      <c r="E84" s="115" t="s">
-        <v>403</v>
-      </c>
-      <c r="F84" s="115" t="s">
-        <v>404</v>
-      </c>
-      <c r="G84" s="115" t="s">
-        <v>405</v>
-      </c>
-      <c r="H84" s="115" t="s">
-        <v>406</v>
-      </c>
-      <c r="I84" s="115" t="s">
+      <c r="D84" s="133" t="s">
+        <v>508</v>
+      </c>
+      <c r="E84" s="133" t="s">
+        <v>509</v>
+      </c>
+      <c r="F84" s="133" t="s">
+        <v>510</v>
+      </c>
+      <c r="G84" s="133" t="s">
+        <v>511</v>
+      </c>
+      <c r="H84" s="133" t="s">
+        <v>512</v>
+      </c>
+      <c r="I84" s="133" t="s">
         <v>257</v>
       </c>
-      <c r="J84" s="115" t="s">
+      <c r="J84" s="133" t="s">
         <v>240</v>
       </c>
-      <c r="K84" s="115" t="s">
+      <c r="K84" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="L84" s="115" t="s">
-        <v>407</v>
-      </c>
-      <c r="M84" s="115" t="s">
-        <v>408</v>
-      </c>
-      <c r="N84" s="115" t="s">
-        <v>409</v>
-      </c>
-      <c r="O84" s="115" t="s">
-        <v>410</v>
-      </c>
-      <c r="P84" s="115" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q84" s="117" t="s">
-        <v>412</v>
-      </c>
-      <c r="R84" s="117" t="s">
-        <v>413</v>
-      </c>
-      <c r="S84" s="117" t="s">
+      <c r="L84" s="133" t="s">
+        <v>513</v>
+      </c>
+      <c r="M84" s="133" t="s">
+        <v>514</v>
+      </c>
+      <c r="N84" s="133" t="s">
+        <v>515</v>
+      </c>
+      <c r="O84" s="133" t="s">
+        <v>516</v>
+      </c>
+      <c r="P84" s="133" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q84" s="135" t="s">
+        <v>518</v>
+      </c>
+      <c r="R84" s="135" t="s">
+        <v>519</v>
+      </c>
+      <c r="S84" s="135" t="s">
         <v>266</v>
       </c>
-      <c r="T84" s="118" t="s">
-        <v>414</v>
-      </c>
-      <c r="U84" s="118" t="s">
-        <v>415</v>
+      <c r="T84" s="136" t="s">
+        <v>520</v>
+      </c>
+      <c r="U84" s="136" t="s">
+        <v>521</v>
       </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
@@ -41215,7 +42410,7 @@
       <c r="B85" s="22">
         <v>51.0</v>
       </c>
-      <c r="C85" s="119">
+      <c r="C85" s="137">
         <v>40909.0</v>
       </c>
       <c r="D85" s="22" t="s">
@@ -41228,10 +42423,10 @@
         <v>46.0</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="I85" s="22" t="s">
         <v>261</v>
@@ -41243,7 +42438,7 @@
         <v>122.0</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>418</v>
+        <v>524</v>
       </c>
       <c r="M85" s="22">
         <v>30.0</v>
@@ -41290,7 +42485,7 @@
       <c r="B86" s="22">
         <v>52.0</v>
       </c>
-      <c r="C86" s="119">
+      <c r="C86" s="137">
         <v>40909.0</v>
       </c>
       <c r="D86" s="22" t="s">
@@ -41303,10 +42498,10 @@
         <v>17.0</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="I86" s="22" t="s">
         <v>294</v>
@@ -41318,7 +42513,7 @@
         <v>123.0</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>418</v>
+        <v>524</v>
       </c>
       <c r="M86" s="22">
         <v>30.0</v>
@@ -41365,7 +42560,7 @@
       <c r="B87" s="22">
         <v>43.0</v>
       </c>
-      <c r="C87" s="119">
+      <c r="C87" s="137">
         <v>40940.0</v>
       </c>
       <c r="D87" s="22" t="s">
@@ -41378,10 +42573,10 @@
         <v>13.0</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="I87" s="22" t="s">
         <v>261</v>
@@ -41393,7 +42588,7 @@
         <v>107.0</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>419</v>
+        <v>525</v>
       </c>
       <c r="M87" s="22">
         <v>30.0</v>
@@ -41440,7 +42635,7 @@
       <c r="B88" s="22">
         <v>38.0</v>
       </c>
-      <c r="C88" s="119">
+      <c r="C88" s="137">
         <v>40940.0</v>
       </c>
       <c r="D88" s="22" t="s">
@@ -41453,10 +42648,10 @@
         <v>10.0</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>420</v>
+        <v>526</v>
       </c>
       <c r="I88" s="22" t="s">
         <v>295</v>
@@ -41468,7 +42663,7 @@
         <v>94.0</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>421</v>
+        <v>527</v>
       </c>
       <c r="M88" s="22">
         <v>40.0</v>
@@ -41515,7 +42710,7 @@
       <c r="B89" s="22">
         <v>72.0</v>
       </c>
-      <c r="C89" s="119">
+      <c r="C89" s="137">
         <v>40940.0</v>
       </c>
       <c r="D89" s="22" t="s">
@@ -41528,10 +42723,10 @@
         <v>23.0</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>420</v>
+        <v>526</v>
       </c>
       <c r="I89" s="22" t="s">
         <v>296</v>
@@ -41543,7 +42738,7 @@
         <v>182.0</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>422</v>
+        <v>528</v>
       </c>
       <c r="M89" s="22">
         <v>20.0</v>
@@ -41590,7 +42785,7 @@
       <c r="B90" s="22">
         <v>0.0</v>
       </c>
-      <c r="C90" s="119">
+      <c r="C90" s="137">
         <v>40969.0</v>
       </c>
       <c r="D90" s="22" t="s">
@@ -41665,7 +42860,7 @@
       <c r="B91" s="22">
         <v>47.0</v>
       </c>
-      <c r="C91" s="119">
+      <c r="C91" s="137">
         <v>40969.0</v>
       </c>
       <c r="D91" s="22" t="s">
@@ -41693,7 +42888,7 @@
         <v>111.0</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>423</v>
+        <v>529</v>
       </c>
       <c r="M91" s="22">
         <v>30.0</v>
@@ -41740,7 +42935,7 @@
       <c r="B92" s="22">
         <v>27.0</v>
       </c>
-      <c r="C92" s="119">
+      <c r="C92" s="137">
         <v>41334.0</v>
       </c>
       <c r="D92" s="22" t="s">
@@ -41756,7 +42951,7 @@
         <v>135</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="I92" s="22" t="s">
         <v>259</v>
@@ -41768,7 +42963,7 @@
         <v>66.0</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="M92" s="22">
         <v>30.0</v>
@@ -41815,7 +43010,7 @@
       <c r="B93" s="22">
         <v>31.0</v>
       </c>
-      <c r="C93" s="119">
+      <c r="C93" s="137">
         <v>41334.0</v>
       </c>
       <c r="D93" s="22" t="s">
@@ -41831,7 +43026,7 @@
         <v>135</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="I93" s="22" t="s">
         <v>259</v>
@@ -41843,7 +43038,7 @@
         <v>68.0</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>426</v>
+        <v>532</v>
       </c>
       <c r="M93" s="22">
         <v>30.0</v>
@@ -41890,7 +43085,7 @@
       <c r="B94" s="22">
         <v>40.0</v>
       </c>
-      <c r="C94" s="119">
+      <c r="C94" s="137">
         <v>41426.0</v>
       </c>
       <c r="D94" s="22" t="s">
@@ -41918,7 +43113,7 @@
         <v>99.0</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>427</v>
+        <v>533</v>
       </c>
       <c r="M94" s="22">
         <v>20.0</v>
@@ -41965,7 +43160,7 @@
       <c r="B95" s="22">
         <v>49.0</v>
       </c>
-      <c r="C95" s="119">
+      <c r="C95" s="137">
         <v>41456.0</v>
       </c>
       <c r="D95" s="22" t="s">
@@ -41981,10 +43176,10 @@
         <v>135</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>428</v>
+        <v>534</v>
       </c>
       <c r="J95" s="22">
         <v>33.0</v>
@@ -41993,7 +43188,7 @@
         <v>120.0</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="M95" s="22">
         <v>30.0</v>
@@ -42040,7 +43235,7 @@
       <c r="B96" s="22">
         <v>45.0</v>
       </c>
-      <c r="C96" s="119">
+      <c r="C96" s="137">
         <v>41456.0</v>
       </c>
       <c r="D96" s="22" t="s">
@@ -42056,10 +43251,10 @@
         <v>135</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>430</v>
+        <v>536</v>
       </c>
       <c r="J96" s="22">
         <v>24.0</v>
@@ -42068,7 +43263,7 @@
         <v>114.0</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="M96" s="22">
         <v>30.0</v>
@@ -42115,7 +43310,7 @@
       <c r="B97" s="22">
         <v>45.0</v>
       </c>
-      <c r="C97" s="119">
+      <c r="C97" s="137">
         <v>41487.0</v>
       </c>
       <c r="D97" s="22" t="s">
@@ -42134,7 +43329,7 @@
         <v>136</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>431</v>
+        <v>537</v>
       </c>
       <c r="J97" s="22">
         <v>-7.0</v>
@@ -42143,7 +43338,7 @@
         <v>109.0</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="M97" s="22">
         <v>30.0</v>
@@ -42190,7 +43385,7 @@
       <c r="B98" s="22">
         <v>60.0</v>
       </c>
-      <c r="C98" s="119">
+      <c r="C98" s="137">
         <v>41487.0</v>
       </c>
       <c r="D98" s="22" t="s">
@@ -42218,7 +43413,7 @@
         <v>144.0</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="M98" s="22">
         <v>30.0</v>
@@ -42265,7 +43460,7 @@
       <c r="B99" s="22">
         <v>34.0</v>
       </c>
-      <c r="C99" s="119">
+      <c r="C99" s="137">
         <v>41548.0</v>
       </c>
       <c r="D99" s="22" t="s">
@@ -42281,10 +43476,10 @@
         <v>135</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>424</v>
+        <v>530</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>430</v>
+        <v>536</v>
       </c>
       <c r="J99" s="22">
         <v>-2.0</v>
@@ -42293,7 +43488,7 @@
         <v>77.0</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>426</v>
+        <v>532</v>
       </c>
       <c r="M99" s="22">
         <v>40.0</v>
@@ -42340,7 +43535,7 @@
       <c r="B100" s="22">
         <v>54.0</v>
       </c>
-      <c r="C100" s="119">
+      <c r="C100" s="137">
         <v>41548.0</v>
       </c>
       <c r="D100" s="22" t="s">
@@ -42368,7 +43563,7 @@
         <v>120.0</v>
       </c>
       <c r="L100" s="22" t="s">
-        <v>433</v>
+        <v>539</v>
       </c>
       <c r="M100" s="22">
         <v>40.0</v>
@@ -42415,7 +43610,7 @@
       <c r="B101" s="22">
         <v>45.0</v>
       </c>
-      <c r="C101" s="119">
+      <c r="C101" s="137">
         <v>41548.0</v>
       </c>
       <c r="D101" s="22" t="s">
@@ -42428,13 +43623,13 @@
         <v>41.0</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>434</v>
+        <v>540</v>
       </c>
       <c r="J101" s="22">
         <v>-6.0</v>
@@ -42443,7 +43638,7 @@
         <v>109.0</v>
       </c>
       <c r="L101" s="22" t="s">
-        <v>435</v>
+        <v>541</v>
       </c>
       <c r="M101" s="22">
         <v>20.0</v>
@@ -42490,7 +43685,7 @@
       <c r="B102" s="22">
         <v>48.0</v>
       </c>
-      <c r="C102" s="119">
+      <c r="C102" s="137">
         <v>41548.0</v>
       </c>
       <c r="D102" s="22" t="s">
@@ -42503,10 +43698,10 @@
         <v>13.0</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="I102" s="22" t="s">
         <v>261</v>
@@ -42518,7 +43713,7 @@
         <v>118.0</v>
       </c>
       <c r="L102" s="22" t="s">
-        <v>436</v>
+        <v>542</v>
       </c>
       <c r="M102" s="22">
         <v>30.0</v>
@@ -42565,7 +43760,7 @@
       <c r="B103" s="22">
         <v>49.0</v>
       </c>
-      <c r="C103" s="119">
+      <c r="C103" s="137">
         <v>41548.0</v>
       </c>
       <c r="D103" s="22" t="s">
@@ -42578,13 +43773,13 @@
         <v>15.0</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>434</v>
+        <v>540</v>
       </c>
       <c r="J103" s="22">
         <v>33.0</v>
@@ -42593,7 +43788,7 @@
         <v>120.0</v>
       </c>
       <c r="L103" s="22" t="s">
-        <v>427</v>
+        <v>533</v>
       </c>
       <c r="M103" s="22">
         <v>30.0</v>
@@ -42651,7 +43846,7 @@
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5"/>
-      <c r="R104" s="81"/>
+      <c r="R104" s="99"/>
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
@@ -42679,7 +43874,7 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5"/>
-      <c r="R105" s="81"/>
+      <c r="R105" s="99"/>
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
@@ -42707,7 +43902,7 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
-      <c r="R106" s="81"/>
+      <c r="R106" s="99"/>
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
@@ -42735,7 +43930,7 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
-      <c r="R107" s="81"/>
+      <c r="R107" s="99"/>
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
@@ -42763,7 +43958,7 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
-      <c r="R108" s="81"/>
+      <c r="R108" s="99"/>
       <c r="S108" s="5"/>
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
@@ -42791,7 +43986,7 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
-      <c r="R109" s="81"/>
+      <c r="R109" s="99"/>
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
@@ -42819,7 +44014,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
-      <c r="R110" s="81"/>
+      <c r="R110" s="99"/>
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
@@ -42830,7 +44025,7 @@
       <c r="Z110" s="5"/>
     </row>
     <row r="111">
-      <c r="A111" s="120"/>
+      <c r="A111" s="138"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -42847,7 +44042,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
-      <c r="R111" s="81"/>
+      <c r="R111" s="99"/>
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
@@ -42858,7 +44053,7 @@
       <c r="Z111" s="5"/>
     </row>
     <row r="112">
-      <c r="A112" s="120"/>
+      <c r="A112" s="138"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -42875,7 +44070,7 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5"/>
-      <c r="R112" s="81"/>
+      <c r="R112" s="99"/>
       <c r="S112" s="5"/>
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
@@ -42886,7 +44081,7 @@
       <c r="Z112" s="5"/>
     </row>
     <row r="113">
-      <c r="A113" s="120"/>
+      <c r="A113" s="138"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -42903,7 +44098,7 @@
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
-      <c r="R113" s="81"/>
+      <c r="R113" s="99"/>
       <c r="S113" s="5"/>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
@@ -42929,7 +44124,7 @@
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
-      <c r="R114" s="81"/>
+      <c r="R114" s="99"/>
       <c r="S114" s="5"/>
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
@@ -42955,7 +44150,7 @@
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
-      <c r="R115" s="81"/>
+      <c r="R115" s="99"/>
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
@@ -42981,7 +44176,7 @@
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
-      <c r="R116" s="81"/>
+      <c r="R116" s="99"/>
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
@@ -43009,7 +44204,7 @@
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
-      <c r="R117" s="81"/>
+      <c r="R117" s="99"/>
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
       <c r="U117" s="5"/>
@@ -43037,7 +44232,7 @@
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
-      <c r="R118" s="81"/>
+      <c r="R118" s="99"/>
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
@@ -43065,7 +44260,7 @@
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
-      <c r="R119" s="81"/>
+      <c r="R119" s="99"/>
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
@@ -43093,7 +44288,7 @@
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
-      <c r="R120" s="81"/>
+      <c r="R120" s="99"/>
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
@@ -43121,7 +44316,7 @@
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
-      <c r="R121" s="81"/>
+      <c r="R121" s="99"/>
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
@@ -43149,7 +44344,7 @@
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
-      <c r="R122" s="81"/>
+      <c r="R122" s="99"/>
       <c r="S122" s="5"/>
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
@@ -43177,7 +44372,7 @@
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
-      <c r="R123" s="81"/>
+      <c r="R123" s="99"/>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
       <c r="U123" s="5"/>
@@ -43205,7 +44400,7 @@
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
-      <c r="R124" s="81"/>
+      <c r="R124" s="99"/>
       <c r="S124" s="5"/>
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
@@ -43233,7 +44428,7 @@
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
-      <c r="R125" s="81"/>
+      <c r="R125" s="99"/>
       <c r="S125" s="5"/>
       <c r="T125" s="5"/>
       <c r="U125" s="5"/>
@@ -43261,7 +44456,7 @@
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
-      <c r="R126" s="81"/>
+      <c r="R126" s="99"/>
       <c r="S126" s="5"/>
       <c r="T126" s="5"/>
       <c r="U126" s="5"/>
@@ -43289,7 +44484,7 @@
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
-      <c r="R127" s="81"/>
+      <c r="R127" s="99"/>
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
@@ -43317,7 +44512,7 @@
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
-      <c r="R128" s="81"/>
+      <c r="R128" s="99"/>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
@@ -43345,7 +44540,7 @@
       <c r="O129" s="5"/>
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
-      <c r="R129" s="81"/>
+      <c r="R129" s="99"/>
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
@@ -43373,7 +44568,7 @@
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
-      <c r="R130" s="81"/>
+      <c r="R130" s="99"/>
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
       <c r="U130" s="5"/>
@@ -43401,7 +44596,7 @@
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
-      <c r="R131" s="81"/>
+      <c r="R131" s="99"/>
       <c r="S131" s="5"/>
       <c r="T131" s="5"/>
       <c r="U131" s="5"/>
@@ -43429,7 +44624,7 @@
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="5"/>
-      <c r="R132" s="81"/>
+      <c r="R132" s="99"/>
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
@@ -43457,7 +44652,7 @@
       <c r="O133" s="5"/>
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
-      <c r="R133" s="81"/>
+      <c r="R133" s="99"/>
       <c r="S133" s="5"/>
       <c r="T133" s="5"/>
       <c r="U133" s="5"/>
@@ -43485,7 +44680,7 @@
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="5"/>
-      <c r="R134" s="81"/>
+      <c r="R134" s="99"/>
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
       <c r="U134" s="5"/>
@@ -43513,7 +44708,7 @@
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
-      <c r="R135" s="81"/>
+      <c r="R135" s="99"/>
       <c r="S135" s="5"/>
       <c r="T135" s="5"/>
       <c r="U135" s="5"/>
@@ -43541,7 +44736,7 @@
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
       <c r="Q136" s="5"/>
-      <c r="R136" s="81"/>
+      <c r="R136" s="99"/>
       <c r="S136" s="5"/>
       <c r="T136" s="5"/>
       <c r="U136" s="5"/>
@@ -43569,7 +44764,7 @@
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
       <c r="Q137" s="5"/>
-      <c r="R137" s="81"/>
+      <c r="R137" s="99"/>
       <c r="S137" s="5"/>
       <c r="T137" s="5"/>
       <c r="U137" s="5"/>
@@ -43597,7 +44792,7 @@
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5"/>
-      <c r="R138" s="81"/>
+      <c r="R138" s="99"/>
       <c r="S138" s="5"/>
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
@@ -43625,7 +44820,7 @@
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="5"/>
-      <c r="R139" s="81"/>
+      <c r="R139" s="99"/>
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
       <c r="U139" s="5"/>
@@ -43653,7 +44848,7 @@
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
-      <c r="R140" s="81"/>
+      <c r="R140" s="99"/>
       <c r="S140" s="5"/>
       <c r="T140" s="5"/>
       <c r="U140" s="5"/>
@@ -43681,7 +44876,7 @@
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
-      <c r="R141" s="81"/>
+      <c r="R141" s="99"/>
       <c r="S141" s="5"/>
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
@@ -43709,7 +44904,7 @@
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
-      <c r="R142" s="81"/>
+      <c r="R142" s="99"/>
       <c r="S142" s="5"/>
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
@@ -43737,7 +44932,7 @@
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
-      <c r="R143" s="81"/>
+      <c r="R143" s="99"/>
       <c r="S143" s="5"/>
       <c r="T143" s="5"/>
       <c r="U143" s="5"/>
@@ -43765,7 +44960,7 @@
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
-      <c r="R144" s="81"/>
+      <c r="R144" s="99"/>
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
@@ -43793,7 +44988,7 @@
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
-      <c r="R145" s="81"/>
+      <c r="R145" s="99"/>
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
@@ -43821,7 +45016,7 @@
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
-      <c r="R146" s="81"/>
+      <c r="R146" s="99"/>
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
@@ -43849,7 +45044,7 @@
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
-      <c r="R147" s="81"/>
+      <c r="R147" s="99"/>
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
@@ -43877,7 +45072,7 @@
       <c r="O148" s="5"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
-      <c r="R148" s="81"/>
+      <c r="R148" s="99"/>
       <c r="S148" s="5"/>
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
@@ -43905,7 +45100,7 @@
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
-      <c r="R149" s="81"/>
+      <c r="R149" s="99"/>
       <c r="S149" s="5"/>
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
@@ -43933,7 +45128,7 @@
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
-      <c r="R150" s="81"/>
+      <c r="R150" s="99"/>
       <c r="S150" s="5"/>
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
@@ -43961,7 +45156,7 @@
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
-      <c r="R151" s="81"/>
+      <c r="R151" s="99"/>
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
@@ -43989,7 +45184,7 @@
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
-      <c r="R152" s="81"/>
+      <c r="R152" s="99"/>
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
@@ -44017,7 +45212,7 @@
       <c r="O153" s="5"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
-      <c r="R153" s="81"/>
+      <c r="R153" s="99"/>
       <c r="S153" s="5"/>
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
@@ -44045,7 +45240,7 @@
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
-      <c r="R154" s="81"/>
+      <c r="R154" s="99"/>
       <c r="S154" s="5"/>
       <c r="T154" s="5"/>
       <c r="U154" s="5"/>
@@ -44073,7 +45268,7 @@
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
-      <c r="R155" s="81"/>
+      <c r="R155" s="99"/>
       <c r="S155" s="5"/>
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
@@ -44101,7 +45296,7 @@
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
-      <c r="R156" s="81"/>
+      <c r="R156" s="99"/>
       <c r="S156" s="5"/>
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
@@ -44129,7 +45324,7 @@
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
-      <c r="R157" s="81"/>
+      <c r="R157" s="99"/>
       <c r="S157" s="5"/>
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
@@ -44157,7 +45352,7 @@
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
-      <c r="R158" s="81"/>
+      <c r="R158" s="99"/>
       <c r="S158" s="5"/>
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
@@ -44185,7 +45380,7 @@
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
-      <c r="R159" s="81"/>
+      <c r="R159" s="99"/>
       <c r="S159" s="5"/>
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
@@ -44213,7 +45408,7 @@
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
-      <c r="R160" s="81"/>
+      <c r="R160" s="99"/>
       <c r="S160" s="5"/>
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
@@ -44241,7 +45436,7 @@
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
-      <c r="R161" s="81"/>
+      <c r="R161" s="99"/>
       <c r="S161" s="5"/>
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
@@ -44269,7 +45464,7 @@
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
-      <c r="R162" s="81"/>
+      <c r="R162" s="99"/>
       <c r="S162" s="5"/>
       <c r="T162" s="5"/>
       <c r="U162" s="5"/>
@@ -44297,7 +45492,7 @@
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
-      <c r="R163" s="81"/>
+      <c r="R163" s="99"/>
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
@@ -44325,7 +45520,7 @@
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
-      <c r="R164" s="81"/>
+      <c r="R164" s="99"/>
       <c r="S164" s="5"/>
       <c r="T164" s="5"/>
       <c r="U164" s="5"/>
@@ -44353,7 +45548,7 @@
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
-      <c r="R165" s="81"/>
+      <c r="R165" s="99"/>
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
@@ -44381,7 +45576,7 @@
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
-      <c r="R166" s="81"/>
+      <c r="R166" s="99"/>
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
@@ -44409,7 +45604,7 @@
       <c r="O167" s="5"/>
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
-      <c r="R167" s="81"/>
+      <c r="R167" s="99"/>
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
@@ -44437,7 +45632,7 @@
       <c r="O168" s="5"/>
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
-      <c r="R168" s="81"/>
+      <c r="R168" s="99"/>
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
@@ -44465,7 +45660,7 @@
       <c r="O169" s="5"/>
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
-      <c r="R169" s="81"/>
+      <c r="R169" s="99"/>
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
       <c r="U169" s="5"/>
@@ -44493,7 +45688,7 @@
       <c r="O170" s="5"/>
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
-      <c r="R170" s="81"/>
+      <c r="R170" s="99"/>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
@@ -44521,7 +45716,7 @@
       <c r="O171" s="5"/>
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
-      <c r="R171" s="81"/>
+      <c r="R171" s="99"/>
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
@@ -44549,7 +45744,7 @@
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
-      <c r="R172" s="81"/>
+      <c r="R172" s="99"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
@@ -44577,7 +45772,7 @@
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
-      <c r="R173" s="81"/>
+      <c r="R173" s="99"/>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
@@ -44605,7 +45800,7 @@
       <c r="O174" s="5"/>
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
-      <c r="R174" s="81"/>
+      <c r="R174" s="99"/>
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
@@ -44633,7 +45828,7 @@
       <c r="O175" s="5"/>
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
-      <c r="R175" s="81"/>
+      <c r="R175" s="99"/>
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
@@ -44661,7 +45856,7 @@
       <c r="O176" s="5"/>
       <c r="P176" s="5"/>
       <c r="Q176" s="5"/>
-      <c r="R176" s="81"/>
+      <c r="R176" s="99"/>
       <c r="S176" s="5"/>
       <c r="T176" s="5"/>
       <c r="U176" s="5"/>
@@ -44689,7 +45884,7 @@
       <c r="O177" s="5"/>
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
-      <c r="R177" s="81"/>
+      <c r="R177" s="99"/>
       <c r="S177" s="5"/>
       <c r="T177" s="5"/>
       <c r="U177" s="5"/>
@@ -44717,7 +45912,7 @@
       <c r="O178" s="5"/>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
-      <c r="R178" s="81"/>
+      <c r="R178" s="99"/>
       <c r="S178" s="5"/>
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
@@ -44745,7 +45940,7 @@
       <c r="O179" s="5"/>
       <c r="P179" s="5"/>
       <c r="Q179" s="5"/>
-      <c r="R179" s="81"/>
+      <c r="R179" s="99"/>
       <c r="S179" s="5"/>
       <c r="T179" s="5"/>
       <c r="U179" s="5"/>
@@ -44773,7 +45968,7 @@
       <c r="O180" s="5"/>
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
-      <c r="R180" s="81"/>
+      <c r="R180" s="99"/>
       <c r="S180" s="5"/>
       <c r="T180" s="5"/>
       <c r="U180" s="5"/>
@@ -44801,7 +45996,7 @@
       <c r="O181" s="5"/>
       <c r="P181" s="5"/>
       <c r="Q181" s="5"/>
-      <c r="R181" s="81"/>
+      <c r="R181" s="99"/>
       <c r="S181" s="5"/>
       <c r="T181" s="5"/>
       <c r="U181" s="5"/>
@@ -44829,7 +46024,7 @@
       <c r="O182" s="5"/>
       <c r="P182" s="5"/>
       <c r="Q182" s="5"/>
-      <c r="R182" s="81"/>
+      <c r="R182" s="99"/>
       <c r="S182" s="5"/>
       <c r="T182" s="5"/>
       <c r="U182" s="5"/>
@@ -44857,7 +46052,7 @@
       <c r="O183" s="5"/>
       <c r="P183" s="5"/>
       <c r="Q183" s="5"/>
-      <c r="R183" s="81"/>
+      <c r="R183" s="99"/>
       <c r="S183" s="5"/>
       <c r="T183" s="5"/>
       <c r="U183" s="5"/>
@@ -44885,7 +46080,7 @@
       <c r="O184" s="5"/>
       <c r="P184" s="5"/>
       <c r="Q184" s="5"/>
-      <c r="R184" s="81"/>
+      <c r="R184" s="99"/>
       <c r="S184" s="5"/>
       <c r="T184" s="5"/>
       <c r="U184" s="5"/>
@@ -44913,7 +46108,7 @@
       <c r="O185" s="5"/>
       <c r="P185" s="5"/>
       <c r="Q185" s="5"/>
-      <c r="R185" s="81"/>
+      <c r="R185" s="99"/>
       <c r="S185" s="5"/>
       <c r="T185" s="5"/>
       <c r="U185" s="5"/>
@@ -44941,7 +46136,7 @@
       <c r="O186" s="5"/>
       <c r="P186" s="5"/>
       <c r="Q186" s="5"/>
-      <c r="R186" s="81"/>
+      <c r="R186" s="99"/>
       <c r="S186" s="5"/>
       <c r="T186" s="5"/>
       <c r="U186" s="5"/>
@@ -44969,7 +46164,7 @@
       <c r="O187" s="5"/>
       <c r="P187" s="5"/>
       <c r="Q187" s="5"/>
-      <c r="R187" s="81"/>
+      <c r="R187" s="99"/>
       <c r="S187" s="5"/>
       <c r="T187" s="5"/>
       <c r="U187" s="5"/>
@@ -44997,7 +46192,7 @@
       <c r="O188" s="5"/>
       <c r="P188" s="5"/>
       <c r="Q188" s="5"/>
-      <c r="R188" s="81"/>
+      <c r="R188" s="99"/>
       <c r="S188" s="5"/>
       <c r="T188" s="5"/>
       <c r="U188" s="5"/>
@@ -45025,7 +46220,7 @@
       <c r="O189" s="5"/>
       <c r="P189" s="5"/>
       <c r="Q189" s="5"/>
-      <c r="R189" s="81"/>
+      <c r="R189" s="99"/>
       <c r="S189" s="5"/>
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
@@ -45053,7 +46248,7 @@
       <c r="O190" s="5"/>
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
-      <c r="R190" s="81"/>
+      <c r="R190" s="99"/>
       <c r="S190" s="5"/>
       <c r="T190" s="5"/>
       <c r="U190" s="5"/>
@@ -45081,7 +46276,7 @@
       <c r="O191" s="5"/>
       <c r="P191" s="5"/>
       <c r="Q191" s="5"/>
-      <c r="R191" s="81"/>
+      <c r="R191" s="99"/>
       <c r="S191" s="5"/>
       <c r="T191" s="5"/>
       <c r="U191" s="5"/>
@@ -45109,7 +46304,7 @@
       <c r="O192" s="5"/>
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
-      <c r="R192" s="81"/>
+      <c r="R192" s="99"/>
       <c r="S192" s="5"/>
       <c r="T192" s="5"/>
       <c r="U192" s="5"/>
@@ -45137,7 +46332,7 @@
       <c r="O193" s="5"/>
       <c r="P193" s="5"/>
       <c r="Q193" s="5"/>
-      <c r="R193" s="81"/>
+      <c r="R193" s="99"/>
       <c r="S193" s="5"/>
       <c r="T193" s="5"/>
       <c r="U193" s="5"/>
@@ -45165,7 +46360,7 @@
       <c r="O194" s="5"/>
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
-      <c r="R194" s="81"/>
+      <c r="R194" s="99"/>
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
       <c r="U194" s="5"/>
@@ -45193,7 +46388,7 @@
       <c r="O195" s="5"/>
       <c r="P195" s="5"/>
       <c r="Q195" s="5"/>
-      <c r="R195" s="81"/>
+      <c r="R195" s="99"/>
       <c r="S195" s="5"/>
       <c r="T195" s="5"/>
       <c r="U195" s="5"/>
@@ -45221,7 +46416,7 @@
       <c r="O196" s="5"/>
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
-      <c r="R196" s="81"/>
+      <c r="R196" s="99"/>
       <c r="S196" s="5"/>
       <c r="T196" s="5"/>
       <c r="U196" s="5"/>
@@ -45249,7 +46444,7 @@
       <c r="O197" s="5"/>
       <c r="P197" s="5"/>
       <c r="Q197" s="5"/>
-      <c r="R197" s="81"/>
+      <c r="R197" s="99"/>
       <c r="S197" s="5"/>
       <c r="T197" s="5"/>
       <c r="U197" s="5"/>
@@ -45277,7 +46472,7 @@
       <c r="O198" s="5"/>
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
-      <c r="R198" s="81"/>
+      <c r="R198" s="99"/>
       <c r="S198" s="5"/>
       <c r="T198" s="5"/>
       <c r="U198" s="5"/>
@@ -45305,7 +46500,7 @@
       <c r="O199" s="5"/>
       <c r="P199" s="5"/>
       <c r="Q199" s="5"/>
-      <c r="R199" s="81"/>
+      <c r="R199" s="99"/>
       <c r="S199" s="5"/>
       <c r="T199" s="5"/>
       <c r="U199" s="5"/>
@@ -45333,7 +46528,7 @@
       <c r="O200" s="5"/>
       <c r="P200" s="5"/>
       <c r="Q200" s="5"/>
-      <c r="R200" s="81"/>
+      <c r="R200" s="99"/>
       <c r="S200" s="5"/>
       <c r="T200" s="5"/>
       <c r="U200" s="5"/>
@@ -45345,7 +46540,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DEA07DB9-ED48-45D5-8D72-0A5A06B0D40E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D0F021FD-F408-40AD-9BF2-59AC08250F42}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$84:$U$103"/>
     </customSheetView>
   </customSheetViews>
@@ -45353,95 +46548,6 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="121" t="str">
-        <f t="array" ref="C1:D9">SORT(A1:B9,2,false)</f>
-        <v>toss_winner</v>
-      </c>
-      <c r="D1" s="121" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="121">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="121">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="121">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="121">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="121">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="121">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="121" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="121">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="121">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10"/>
-  </sheetData>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -45456,21 +46562,110 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="122" t="s">
-        <v>439</v>
+      <c r="C1" s="139" t="str">
+        <f t="array" ref="C1:D9">SORT(A1:B9,2,false)</f>
+        <v>toss_winner</v>
+      </c>
+      <c r="D1" s="139" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="121">
+      <c r="C2" s="139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="139">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="139">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="139">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="139">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="139">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="139">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="139">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="139">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10"/>
+  </sheetData>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="140" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="139">
         <f t="shared" ref="C2:C3" si="1">B2/($B$4/100)</f>
         <v>55.17241379</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>441</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="121">
+      <c r="C3" s="139">
         <f t="shared" si="1"/>
         <v>44.82758621</v>
       </c>
@@ -45481,7 +46676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -45500,7 +46695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
